--- a/Septiembre/21 septiembre/llano de aguascalientes/PLANTILLA LISTA DE ASPIRANTES ITEL (1).xlsx
+++ b/Septiembre/21 septiembre/llano de aguascalientes/PLANTILLA LISTA DE ASPIRANTES ITEL (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizro\Documents\AGOSTO-DIC 2024\EVALUATEC TECNM 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Septiembre\21 septiembre\llano de aguascalientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_14D7A70663831E7A284D810C75CC1014CCCABCE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DFC7C-17BF-4BC7-995A-FFD40464B1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE ASPIRANTES" sheetId="1" r:id="rId1"/>
@@ -2598,7 +2598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2834,26 +2834,26 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2900,9 +2900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2940,7 +2940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3046,7 +3046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3188,7 +3188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3201,28 +3201,28 @@
   </sheetPr>
   <dimension ref="A1:O694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="12" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.375" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="13" customWidth="1"/>
     <col min="13" max="13" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.25">
+    <row r="1" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21.75" customHeight="1">
+    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="N5" s="46"/>
       <c r="O5" s="46"/>
     </row>
-    <row r="6" spans="1:15" ht="18">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.75" customHeight="1">
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="29.25" customHeight="1">
+    <row r="35" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18">
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18">
+    <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18">
+    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18">
+    <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18">
+    <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18">
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18">
+    <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18">
+    <row r="79" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="18">
+    <row r="80" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18">
+    <row r="81" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18">
+    <row r="82" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="18">
+    <row r="83" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="18">
+    <row r="84" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18">
+    <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18">
+    <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18">
+    <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="18">
+    <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="18">
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18">
+    <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18">
+    <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18">
+    <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="18">
+    <row r="93" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18">
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18">
+    <row r="96" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18">
+    <row r="97" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18">
+    <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18">
+    <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18">
+    <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18">
+    <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="18">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="18">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18">
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18">
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="18">
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="18">
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18">
+    <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18">
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="18">
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="18">
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18">
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="18">
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="18">
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="18">
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="18">
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="18">
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="18">
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18">
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="18">
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="18">
+    <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="18">
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="18">
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="18">
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="5" customFormat="1" ht="18">
+    <row r="134" spans="1:13" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="18">
+    <row r="135" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="18">
+    <row r="136" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="18">
+    <row r="137" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="18">
+    <row r="138" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="18">
+    <row r="139" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18">
+    <row r="140" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="18">
+    <row r="141" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="18">
+    <row r="142" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="18">
+    <row r="143" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="18">
+    <row r="144" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18">
+    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18">
+    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18">
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18">
+    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18">
+    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18">
+    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18">
+    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18">
+    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="18">
+    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18">
+    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18">
+    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18">
+    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18">
+    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="18">
+    <row r="159" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18">
+    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="18">
+    <row r="161" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="18">
+    <row r="162" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="18">
+    <row r="163" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="18">
+    <row r="164" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="18">
+    <row r="165" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="18">
+    <row r="166" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="18">
+    <row r="167" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="18">
+    <row r="168" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="18">
+    <row r="169" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="18">
+    <row r="170" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="18">
+    <row r="171" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="18">
+    <row r="172" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="18">
+    <row r="173" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="18">
+    <row r="174" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="18">
+    <row r="175" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="18">
+    <row r="176" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="18">
+    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="18">
+    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="18">
+    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="18">
+    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="18">
+    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="18">
+    <row r="182" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="18">
+    <row r="183" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="18">
+    <row r="184" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="18">
+    <row r="185" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="18">
+    <row r="186" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="18">
+    <row r="187" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="18">
+    <row r="188" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="18">
+    <row r="189" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="18">
+    <row r="190" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="18">
+    <row r="191" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="18">
+    <row r="192" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="18">
+    <row r="193" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="18">
+    <row r="194" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="18">
+    <row r="195" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="18">
+    <row r="196" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="18">
+    <row r="197" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="18">
+    <row r="198" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="18">
+    <row r="199" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="18">
+    <row r="200" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="18">
+    <row r="201" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="18">
+    <row r="202" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="18">
+    <row r="203" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="18">
+    <row r="204" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="18">
+    <row r="205" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="18">
+    <row r="206" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="18">
+    <row r="207" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="18">
+    <row r="208" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="18">
+    <row r="209" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="18">
+    <row r="210" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="18">
+    <row r="211" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="18">
+    <row r="212" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="18">
+    <row r="213" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="18">
+    <row r="214" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="18">
+    <row r="215" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="18">
+    <row r="216" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="18">
+    <row r="217" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="18">
+    <row r="218" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="18">
+    <row r="219" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="18">
+    <row r="220" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="18">
+    <row r="221" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="18">
+    <row r="222" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="18">
+    <row r="223" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="18">
+    <row r="224" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="18">
+    <row r="225" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="18">
+    <row r="226" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="18">
+    <row r="227" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="18">
+    <row r="228" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="18">
+    <row r="229" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="18">
+    <row r="230" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="18">
+    <row r="231" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="18">
+    <row r="232" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="18">
+    <row r="233" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="18">
+    <row r="234" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="18">
+    <row r="235" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="18">
+    <row r="236" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="18">
+    <row r="237" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="18">
+    <row r="238" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="18">
+    <row r="239" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="18">
+    <row r="240" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="18">
+    <row r="241" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="18">
+    <row r="242" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="18">
+    <row r="243" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="18">
+    <row r="244" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="18">
+    <row r="245" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="18">
+    <row r="246" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="18">
+    <row r="247" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="18">
+    <row r="248" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="18">
+    <row r="249" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="18">
+    <row r="250" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="18">
+    <row r="251" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="18">
+    <row r="252" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="18">
+    <row r="253" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="18">
+    <row r="254" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="18">
+    <row r="255" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="18">
+    <row r="256" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="18">
+    <row r="257" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="18">
+    <row r="258" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="18">
+    <row r="259" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="18">
+    <row r="260" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="18">
+    <row r="261" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="18">
+    <row r="262" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="18">
+    <row r="263" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="18">
+    <row r="264" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="18">
+    <row r="265" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="18">
+    <row r="266" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="18">
+    <row r="267" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="18">
+    <row r="268" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="18">
+    <row r="269" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="18">
+    <row r="270" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="18">
+    <row r="271" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="18">
+    <row r="272" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="18">
+    <row r="273" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="18">
+    <row r="274" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="18">
+    <row r="275" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B276" s="20"/>
       <c r="E276" s="17"/>
       <c r="F276" s="19"/>
@@ -14511,7 +14511,7 @@
       <c r="L276" s="18"/>
       <c r="M276" s="19"/>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B277" s="20"/>
       <c r="E277" s="17"/>
       <c r="F277" s="19"/>
@@ -14523,7 +14523,7 @@
       <c r="L277" s="18"/>
       <c r="M277" s="19"/>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B278" s="20"/>
       <c r="E278" s="17"/>
       <c r="F278" s="19"/>
@@ -14535,7 +14535,7 @@
       <c r="L278" s="18"/>
       <c r="M278" s="19"/>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B279" s="20"/>
       <c r="E279" s="17"/>
       <c r="F279" s="19"/>
@@ -14547,7 +14547,7 @@
       <c r="L279" s="18"/>
       <c r="M279" s="19"/>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B280" s="20"/>
       <c r="E280" s="17"/>
       <c r="F280" s="19"/>
@@ -14559,7 +14559,7 @@
       <c r="L280" s="18"/>
       <c r="M280" s="19"/>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B281" s="20"/>
       <c r="E281" s="17"/>
       <c r="F281" s="19"/>
@@ -14571,7 +14571,7 @@
       <c r="L281" s="18"/>
       <c r="M281" s="19"/>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B282" s="20"/>
       <c r="E282" s="17"/>
       <c r="F282" s="19"/>
@@ -14583,7 +14583,7 @@
       <c r="L282" s="18"/>
       <c r="M282" s="19"/>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B283" s="20"/>
       <c r="E283" s="17"/>
       <c r="F283" s="19"/>
@@ -14595,7 +14595,7 @@
       <c r="L283" s="18"/>
       <c r="M283" s="19"/>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B284" s="20"/>
       <c r="E284" s="17"/>
       <c r="F284" s="19"/>
@@ -14607,7 +14607,7 @@
       <c r="L284" s="18"/>
       <c r="M284" s="19"/>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B285" s="20"/>
       <c r="E285" s="17"/>
       <c r="F285" s="19"/>
@@ -14619,7 +14619,7 @@
       <c r="L285" s="18"/>
       <c r="M285" s="19"/>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B286" s="20"/>
       <c r="E286" s="17"/>
       <c r="F286" s="19"/>
@@ -14631,7 +14631,7 @@
       <c r="L286" s="18"/>
       <c r="M286" s="19"/>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B287" s="20"/>
       <c r="E287" s="17"/>
       <c r="F287" s="19"/>
@@ -14643,7 +14643,7 @@
       <c r="L287" s="18"/>
       <c r="M287" s="19"/>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B288" s="20"/>
       <c r="E288" s="17"/>
       <c r="F288" s="19"/>
@@ -14655,7 +14655,7 @@
       <c r="L288" s="18"/>
       <c r="M288" s="19"/>
     </row>
-    <row r="289" spans="2:13">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B289" s="20"/>
       <c r="E289" s="17"/>
       <c r="F289" s="19"/>
@@ -14667,7 +14667,7 @@
       <c r="L289" s="18"/>
       <c r="M289" s="19"/>
     </row>
-    <row r="290" spans="2:13">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B290" s="20"/>
       <c r="E290" s="17"/>
       <c r="F290" s="19"/>
@@ -14679,7 +14679,7 @@
       <c r="L290" s="18"/>
       <c r="M290" s="19"/>
     </row>
-    <row r="291" spans="2:13">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B291" s="20"/>
       <c r="E291" s="17"/>
       <c r="F291" s="19"/>
@@ -14691,7 +14691,7 @@
       <c r="L291" s="18"/>
       <c r="M291" s="19"/>
     </row>
-    <row r="292" spans="2:13">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E292" s="17"/>
       <c r="F292" s="19"/>
       <c r="G292" s="19"/>
@@ -14702,7 +14702,7 @@
       <c r="L292" s="18"/>
       <c r="M292" s="21"/>
     </row>
-    <row r="293" spans="2:13">
+    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E293" s="17"/>
       <c r="F293" s="19"/>
       <c r="G293" s="19"/>
@@ -14713,7 +14713,7 @@
       <c r="L293" s="18"/>
       <c r="M293" s="21"/>
     </row>
-    <row r="294" spans="2:13">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E294" s="17"/>
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
@@ -14724,7 +14724,7 @@
       <c r="L294" s="18"/>
       <c r="M294" s="21"/>
     </row>
-    <row r="295" spans="2:13">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E295" s="17"/>
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
@@ -14735,7 +14735,7 @@
       <c r="L295" s="18"/>
       <c r="M295" s="21"/>
     </row>
-    <row r="296" spans="2:13">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E296" s="17"/>
       <c r="F296" s="19"/>
       <c r="G296" s="19"/>
@@ -14746,7 +14746,7 @@
       <c r="L296" s="18"/>
       <c r="M296" s="21"/>
     </row>
-    <row r="297" spans="2:13">
+    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E297" s="17"/>
       <c r="F297" s="19"/>
       <c r="G297" s="19"/>
@@ -14757,7 +14757,7 @@
       <c r="L297" s="18"/>
       <c r="M297" s="21"/>
     </row>
-    <row r="298" spans="2:13">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E298" s="17"/>
       <c r="F298" s="19"/>
       <c r="G298" s="19"/>
@@ -14768,7 +14768,7 @@
       <c r="L298" s="18"/>
       <c r="M298" s="21"/>
     </row>
-    <row r="299" spans="2:13">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E299" s="17"/>
       <c r="F299" s="19"/>
       <c r="G299" s="19"/>
@@ -14779,7 +14779,7 @@
       <c r="L299" s="18"/>
       <c r="M299" s="21"/>
     </row>
-    <row r="300" spans="2:13">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E300" s="17"/>
       <c r="F300" s="19"/>
       <c r="G300" s="19"/>
@@ -14790,7 +14790,7 @@
       <c r="L300" s="18"/>
       <c r="M300" s="21"/>
     </row>
-    <row r="301" spans="2:13">
+    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E301" s="17"/>
       <c r="F301" s="19"/>
       <c r="G301" s="19"/>
@@ -14801,7 +14801,7 @@
       <c r="L301" s="18"/>
       <c r="M301" s="21"/>
     </row>
-    <row r="302" spans="2:13">
+    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E302" s="17"/>
       <c r="F302" s="19"/>
       <c r="G302" s="19"/>
@@ -14812,7 +14812,7 @@
       <c r="L302" s="18"/>
       <c r="M302" s="21"/>
     </row>
-    <row r="303" spans="2:13">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E303" s="17"/>
       <c r="F303" s="19"/>
       <c r="G303" s="19"/>
@@ -14823,7 +14823,7 @@
       <c r="L303" s="18"/>
       <c r="M303" s="21"/>
     </row>
-    <row r="304" spans="2:13">
+    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E304" s="17"/>
       <c r="F304" s="19"/>
       <c r="G304" s="19"/>
@@ -14834,7 +14834,7 @@
       <c r="L304" s="18"/>
       <c r="M304" s="21"/>
     </row>
-    <row r="305" spans="7:13">
+    <row r="305" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G305" s="19"/>
       <c r="H305" s="14"/>
       <c r="I305" s="15"/>
@@ -14843,7 +14843,7 @@
       <c r="L305" s="18"/>
       <c r="M305" s="21"/>
     </row>
-    <row r="306" spans="7:13">
+    <row r="306" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G306" s="19"/>
       <c r="H306" s="14"/>
       <c r="I306" s="15"/>
@@ -14852,7 +14852,7 @@
       <c r="L306" s="18"/>
       <c r="M306" s="21"/>
     </row>
-    <row r="307" spans="7:13">
+    <row r="307" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G307" s="19"/>
       <c r="H307" s="14"/>
       <c r="I307" s="15"/>
@@ -14861,7 +14861,7 @@
       <c r="L307" s="18"/>
       <c r="M307" s="21"/>
     </row>
-    <row r="308" spans="7:13">
+    <row r="308" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G308" s="19"/>
       <c r="H308" s="14"/>
       <c r="I308" s="15"/>
@@ -14870,7 +14870,7 @@
       <c r="L308" s="18"/>
       <c r="M308" s="21"/>
     </row>
-    <row r="309" spans="7:13">
+    <row r="309" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G309" s="19"/>
       <c r="H309" s="14"/>
       <c r="I309" s="15"/>
@@ -14879,7 +14879,7 @@
       <c r="L309" s="18"/>
       <c r="M309" s="21"/>
     </row>
-    <row r="310" spans="7:13">
+    <row r="310" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G310" s="19"/>
       <c r="H310" s="14"/>
       <c r="I310" s="15"/>
@@ -14888,7 +14888,7 @@
       <c r="L310" s="18"/>
       <c r="M310" s="21"/>
     </row>
-    <row r="311" spans="7:13">
+    <row r="311" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G311" s="19"/>
       <c r="H311" s="14"/>
       <c r="I311" s="15"/>
@@ -14897,7 +14897,7 @@
       <c r="L311" s="18"/>
       <c r="M311" s="21"/>
     </row>
-    <row r="312" spans="7:13">
+    <row r="312" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G312" s="19"/>
       <c r="H312" s="14"/>
       <c r="I312" s="15"/>
@@ -14906,7 +14906,7 @@
       <c r="L312" s="18"/>
       <c r="M312" s="21"/>
     </row>
-    <row r="313" spans="7:13">
+    <row r="313" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G313" s="19"/>
       <c r="H313" s="14"/>
       <c r="I313" s="15"/>
@@ -14915,7 +14915,7 @@
       <c r="L313" s="18"/>
       <c r="M313" s="21"/>
     </row>
-    <row r="314" spans="7:13">
+    <row r="314" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G314" s="19"/>
       <c r="H314" s="14"/>
       <c r="I314" s="15"/>
@@ -14924,7 +14924,7 @@
       <c r="L314" s="18"/>
       <c r="M314" s="21"/>
     </row>
-    <row r="315" spans="7:13">
+    <row r="315" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G315" s="19"/>
       <c r="H315" s="14"/>
       <c r="I315" s="15"/>
@@ -14933,7 +14933,7 @@
       <c r="L315" s="18"/>
       <c r="M315" s="21"/>
     </row>
-    <row r="316" spans="7:13">
+    <row r="316" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G316" s="19"/>
       <c r="H316" s="14"/>
       <c r="I316" s="15"/>
@@ -14942,7 +14942,7 @@
       <c r="L316" s="18"/>
       <c r="M316" s="21"/>
     </row>
-    <row r="317" spans="7:13">
+    <row r="317" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G317" s="19"/>
       <c r="H317" s="14"/>
       <c r="I317" s="15"/>
@@ -14951,7 +14951,7 @@
       <c r="L317" s="18"/>
       <c r="M317" s="21"/>
     </row>
-    <row r="318" spans="7:13">
+    <row r="318" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G318" s="19"/>
       <c r="H318" s="14"/>
       <c r="I318" s="15"/>
@@ -14960,7 +14960,7 @@
       <c r="L318" s="18"/>
       <c r="M318" s="21"/>
     </row>
-    <row r="319" spans="7:13">
+    <row r="319" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G319" s="19"/>
       <c r="H319" s="14"/>
       <c r="I319" s="15"/>
@@ -14969,7 +14969,7 @@
       <c r="L319" s="18"/>
       <c r="M319" s="21"/>
     </row>
-    <row r="320" spans="7:13">
+    <row r="320" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G320" s="19"/>
       <c r="H320" s="14"/>
       <c r="I320" s="15"/>
@@ -14978,7 +14978,7 @@
       <c r="L320" s="18"/>
       <c r="M320" s="21"/>
     </row>
-    <row r="321" spans="7:13">
+    <row r="321" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G321" s="19"/>
       <c r="H321" s="14"/>
       <c r="I321" s="15"/>
@@ -14987,7 +14987,7 @@
       <c r="L321" s="18"/>
       <c r="M321" s="21"/>
     </row>
-    <row r="322" spans="7:13">
+    <row r="322" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G322" s="19"/>
       <c r="H322" s="14"/>
       <c r="I322" s="15"/>
@@ -14996,7 +14996,7 @@
       <c r="L322" s="18"/>
       <c r="M322" s="21"/>
     </row>
-    <row r="323" spans="7:13">
+    <row r="323" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G323" s="19"/>
       <c r="H323" s="14"/>
       <c r="I323" s="15"/>
@@ -15005,7 +15005,7 @@
       <c r="L323" s="18"/>
       <c r="M323" s="21"/>
     </row>
-    <row r="324" spans="7:13">
+    <row r="324" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G324" s="19"/>
       <c r="H324" s="14"/>
       <c r="I324" s="15"/>
@@ -15014,7 +15014,7 @@
       <c r="L324" s="18"/>
       <c r="M324" s="21"/>
     </row>
-    <row r="325" spans="7:13">
+    <row r="325" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G325" s="19"/>
       <c r="H325" s="14"/>
       <c r="I325" s="15"/>
@@ -15023,7 +15023,7 @@
       <c r="L325" s="18"/>
       <c r="M325" s="21"/>
     </row>
-    <row r="326" spans="7:13">
+    <row r="326" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G326" s="19"/>
       <c r="H326" s="14"/>
       <c r="I326" s="15"/>
@@ -15032,7 +15032,7 @@
       <c r="L326" s="18"/>
       <c r="M326" s="21"/>
     </row>
-    <row r="327" spans="7:13">
+    <row r="327" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G327" s="19"/>
       <c r="H327" s="14"/>
       <c r="I327" s="15"/>
@@ -15041,7 +15041,7 @@
       <c r="L327" s="18"/>
       <c r="M327" s="21"/>
     </row>
-    <row r="328" spans="7:13">
+    <row r="328" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G328" s="19"/>
       <c r="H328" s="14"/>
       <c r="I328" s="15"/>
@@ -15050,7 +15050,7 @@
       <c r="L328" s="18"/>
       <c r="M328" s="21"/>
     </row>
-    <row r="329" spans="7:13">
+    <row r="329" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G329" s="19"/>
       <c r="H329" s="14"/>
       <c r="I329" s="15"/>
@@ -15059,7 +15059,7 @@
       <c r="L329" s="18"/>
       <c r="M329" s="21"/>
     </row>
-    <row r="330" spans="7:13">
+    <row r="330" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G330" s="19"/>
       <c r="H330" s="14"/>
       <c r="I330" s="15"/>
@@ -15068,7 +15068,7 @@
       <c r="L330" s="18"/>
       <c r="M330" s="21"/>
     </row>
-    <row r="331" spans="7:13">
+    <row r="331" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G331" s="19"/>
       <c r="H331" s="14"/>
       <c r="I331" s="15"/>
@@ -15077,7 +15077,7 @@
       <c r="L331" s="18"/>
       <c r="M331" s="21"/>
     </row>
-    <row r="332" spans="7:13">
+    <row r="332" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G332" s="19"/>
       <c r="H332" s="14"/>
       <c r="I332" s="15"/>
@@ -15086,7 +15086,7 @@
       <c r="L332" s="18"/>
       <c r="M332" s="21"/>
     </row>
-    <row r="333" spans="7:13">
+    <row r="333" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G333" s="19"/>
       <c r="H333" s="14"/>
       <c r="I333" s="15"/>
@@ -15095,7 +15095,7 @@
       <c r="L333" s="18"/>
       <c r="M333" s="21"/>
     </row>
-    <row r="334" spans="7:13">
+    <row r="334" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G334" s="19"/>
       <c r="H334" s="14"/>
       <c r="I334" s="15"/>
@@ -15104,7 +15104,7 @@
       <c r="L334" s="18"/>
       <c r="M334" s="21"/>
     </row>
-    <row r="335" spans="7:13">
+    <row r="335" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G335" s="19"/>
       <c r="H335" s="14"/>
       <c r="I335" s="15"/>
@@ -15113,7 +15113,7 @@
       <c r="L335" s="18"/>
       <c r="M335" s="21"/>
     </row>
-    <row r="336" spans="7:13">
+    <row r="336" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G336" s="19"/>
       <c r="H336" s="14"/>
       <c r="I336" s="15"/>
@@ -15122,7 +15122,7 @@
       <c r="L336" s="18"/>
       <c r="M336" s="21"/>
     </row>
-    <row r="337" spans="7:13">
+    <row r="337" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G337" s="19"/>
       <c r="H337" s="14"/>
       <c r="I337" s="15"/>
@@ -15131,7 +15131,7 @@
       <c r="L337" s="18"/>
       <c r="M337" s="21"/>
     </row>
-    <row r="338" spans="7:13">
+    <row r="338" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G338" s="19"/>
       <c r="H338" s="14"/>
       <c r="I338" s="15"/>
@@ -15140,7 +15140,7 @@
       <c r="L338" s="18"/>
       <c r="M338" s="21"/>
     </row>
-    <row r="339" spans="7:13">
+    <row r="339" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G339" s="19"/>
       <c r="H339" s="14"/>
       <c r="I339" s="15"/>
@@ -15149,7 +15149,7 @@
       <c r="L339" s="18"/>
       <c r="M339" s="21"/>
     </row>
-    <row r="340" spans="7:13">
+    <row r="340" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G340" s="19"/>
       <c r="H340" s="14"/>
       <c r="I340" s="15"/>
@@ -15158,7 +15158,7 @@
       <c r="L340" s="18"/>
       <c r="M340" s="21"/>
     </row>
-    <row r="341" spans="7:13">
+    <row r="341" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G341" s="19"/>
       <c r="H341" s="14"/>
       <c r="I341" s="15"/>
@@ -15167,7 +15167,7 @@
       <c r="L341" s="18"/>
       <c r="M341" s="21"/>
     </row>
-    <row r="342" spans="7:13">
+    <row r="342" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G342" s="19"/>
       <c r="H342" s="14"/>
       <c r="I342" s="15"/>
@@ -15176,7 +15176,7 @@
       <c r="L342" s="18"/>
       <c r="M342" s="21"/>
     </row>
-    <row r="343" spans="7:13">
+    <row r="343" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G343" s="19"/>
       <c r="H343" s="14"/>
       <c r="I343" s="15"/>
@@ -15185,7 +15185,7 @@
       <c r="L343" s="18"/>
       <c r="M343" s="21"/>
     </row>
-    <row r="344" spans="7:13">
+    <row r="344" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G344" s="19"/>
       <c r="H344" s="14"/>
       <c r="I344" s="15"/>
@@ -15194,7 +15194,7 @@
       <c r="L344" s="18"/>
       <c r="M344" s="21"/>
     </row>
-    <row r="345" spans="7:13">
+    <row r="345" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G345" s="19"/>
       <c r="H345" s="14"/>
       <c r="I345" s="15"/>
@@ -15203,7 +15203,7 @@
       <c r="L345" s="18"/>
       <c r="M345" s="21"/>
     </row>
-    <row r="346" spans="7:13">
+    <row r="346" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G346" s="19"/>
       <c r="H346" s="14"/>
       <c r="I346" s="15"/>
@@ -15212,7 +15212,7 @@
       <c r="L346" s="18"/>
       <c r="M346" s="21"/>
     </row>
-    <row r="347" spans="7:13">
+    <row r="347" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G347" s="19"/>
       <c r="H347" s="14"/>
       <c r="I347" s="15"/>
@@ -15221,7 +15221,7 @@
       <c r="L347" s="18"/>
       <c r="M347" s="21"/>
     </row>
-    <row r="348" spans="7:13">
+    <row r="348" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G348" s="19"/>
       <c r="H348" s="14"/>
       <c r="I348" s="15"/>
@@ -15230,7 +15230,7 @@
       <c r="L348" s="18"/>
       <c r="M348" s="21"/>
     </row>
-    <row r="349" spans="7:13">
+    <row r="349" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G349" s="19"/>
       <c r="H349" s="14"/>
       <c r="I349" s="15"/>
@@ -15239,7 +15239,7 @@
       <c r="L349" s="18"/>
       <c r="M349" s="21"/>
     </row>
-    <row r="350" spans="7:13">
+    <row r="350" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G350" s="19"/>
       <c r="H350" s="14"/>
       <c r="I350" s="15"/>
@@ -15248,7 +15248,7 @@
       <c r="L350" s="18"/>
       <c r="M350" s="21"/>
     </row>
-    <row r="351" spans="7:13">
+    <row r="351" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G351" s="19"/>
       <c r="H351" s="14"/>
       <c r="I351" s="15"/>
@@ -15257,7 +15257,7 @@
       <c r="L351" s="18"/>
       <c r="M351" s="21"/>
     </row>
-    <row r="352" spans="7:13">
+    <row r="352" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G352" s="19"/>
       <c r="H352" s="14"/>
       <c r="I352" s="15"/>
@@ -15266,7 +15266,7 @@
       <c r="L352" s="18"/>
       <c r="M352" s="21"/>
     </row>
-    <row r="353" spans="7:13">
+    <row r="353" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G353" s="19"/>
       <c r="H353" s="14"/>
       <c r="I353" s="15"/>
@@ -15275,7 +15275,7 @@
       <c r="L353" s="18"/>
       <c r="M353" s="21"/>
     </row>
-    <row r="354" spans="7:13">
+    <row r="354" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G354" s="19"/>
       <c r="H354" s="14"/>
       <c r="I354" s="15"/>
@@ -15284,7 +15284,7 @@
       <c r="L354" s="18"/>
       <c r="M354" s="21"/>
     </row>
-    <row r="355" spans="7:13">
+    <row r="355" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G355" s="19"/>
       <c r="H355" s="14"/>
       <c r="I355" s="15"/>
@@ -15293,7 +15293,7 @@
       <c r="L355" s="18"/>
       <c r="M355" s="21"/>
     </row>
-    <row r="356" spans="7:13">
+    <row r="356" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G356" s="19"/>
       <c r="H356" s="14"/>
       <c r="I356" s="15"/>
@@ -15302,7 +15302,7 @@
       <c r="L356" s="18"/>
       <c r="M356" s="21"/>
     </row>
-    <row r="357" spans="7:13">
+    <row r="357" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G357" s="19"/>
       <c r="H357" s="14"/>
       <c r="I357" s="15"/>
@@ -15311,7 +15311,7 @@
       <c r="L357" s="18"/>
       <c r="M357" s="21"/>
     </row>
-    <row r="358" spans="7:13">
+    <row r="358" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G358" s="19"/>
       <c r="H358" s="14"/>
       <c r="I358" s="15"/>
@@ -15320,7 +15320,7 @@
       <c r="L358" s="18"/>
       <c r="M358" s="21"/>
     </row>
-    <row r="359" spans="7:13">
+    <row r="359" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G359" s="19"/>
       <c r="H359" s="14"/>
       <c r="I359" s="15"/>
@@ -15329,7 +15329,7 @@
       <c r="L359" s="18"/>
       <c r="M359" s="21"/>
     </row>
-    <row r="360" spans="7:13">
+    <row r="360" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G360" s="19"/>
       <c r="H360" s="14"/>
       <c r="I360" s="15"/>
@@ -15338,7 +15338,7 @@
       <c r="L360" s="18"/>
       <c r="M360" s="21"/>
     </row>
-    <row r="361" spans="7:13">
+    <row r="361" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G361" s="19"/>
       <c r="H361" s="14"/>
       <c r="I361" s="15"/>
@@ -15347,7 +15347,7 @@
       <c r="L361" s="18"/>
       <c r="M361" s="21"/>
     </row>
-    <row r="362" spans="7:13">
+    <row r="362" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G362" s="19"/>
       <c r="H362" s="14"/>
       <c r="I362" s="15"/>
@@ -15356,7 +15356,7 @@
       <c r="L362" s="18"/>
       <c r="M362" s="21"/>
     </row>
-    <row r="363" spans="7:13">
+    <row r="363" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G363" s="19"/>
       <c r="H363" s="14"/>
       <c r="I363" s="15"/>
@@ -15365,7 +15365,7 @@
       <c r="L363" s="18"/>
       <c r="M363" s="21"/>
     </row>
-    <row r="364" spans="7:13">
+    <row r="364" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G364" s="19"/>
       <c r="H364" s="14"/>
       <c r="I364" s="15"/>
@@ -15374,7 +15374,7 @@
       <c r="L364" s="18"/>
       <c r="M364" s="21"/>
     </row>
-    <row r="365" spans="7:13">
+    <row r="365" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G365" s="19"/>
       <c r="H365" s="14"/>
       <c r="I365" s="15"/>
@@ -15383,7 +15383,7 @@
       <c r="L365" s="18"/>
       <c r="M365" s="21"/>
     </row>
-    <row r="366" spans="7:13">
+    <row r="366" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G366" s="19"/>
       <c r="H366" s="14"/>
       <c r="I366" s="15"/>
@@ -15392,7 +15392,7 @@
       <c r="L366" s="18"/>
       <c r="M366" s="21"/>
     </row>
-    <row r="367" spans="7:13">
+    <row r="367" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G367" s="19"/>
       <c r="H367" s="14"/>
       <c r="I367" s="15"/>
@@ -15401,7 +15401,7 @@
       <c r="L367" s="18"/>
       <c r="M367" s="21"/>
     </row>
-    <row r="368" spans="7:13">
+    <row r="368" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G368" s="19"/>
       <c r="H368" s="14"/>
       <c r="I368" s="15"/>
@@ -15410,7 +15410,7 @@
       <c r="L368" s="18"/>
       <c r="M368" s="21"/>
     </row>
-    <row r="369" spans="7:13">
+    <row r="369" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G369" s="19"/>
       <c r="H369" s="14"/>
       <c r="I369" s="15"/>
@@ -15419,7 +15419,7 @@
       <c r="L369" s="18"/>
       <c r="M369" s="21"/>
     </row>
-    <row r="370" spans="7:13">
+    <row r="370" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G370" s="19"/>
       <c r="H370" s="14"/>
       <c r="I370" s="15"/>
@@ -15428,7 +15428,7 @@
       <c r="L370" s="18"/>
       <c r="M370" s="21"/>
     </row>
-    <row r="371" spans="7:13">
+    <row r="371" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G371" s="19"/>
       <c r="H371" s="14"/>
       <c r="I371" s="15"/>
@@ -15437,7 +15437,7 @@
       <c r="L371" s="18"/>
       <c r="M371" s="21"/>
     </row>
-    <row r="372" spans="7:13">
+    <row r="372" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G372" s="19"/>
       <c r="H372" s="14"/>
       <c r="I372" s="15"/>
@@ -15446,7 +15446,7 @@
       <c r="L372" s="18"/>
       <c r="M372" s="21"/>
     </row>
-    <row r="373" spans="7:13">
+    <row r="373" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G373" s="19"/>
       <c r="H373" s="14"/>
       <c r="I373" s="15"/>
@@ -15455,7 +15455,7 @@
       <c r="L373" s="18"/>
       <c r="M373" s="21"/>
     </row>
-    <row r="374" spans="7:13">
+    <row r="374" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G374" s="19"/>
       <c r="H374" s="14"/>
       <c r="I374" s="15"/>
@@ -15464,7 +15464,7 @@
       <c r="L374" s="18"/>
       <c r="M374" s="21"/>
     </row>
-    <row r="375" spans="7:13">
+    <row r="375" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G375" s="19"/>
       <c r="H375" s="14"/>
       <c r="I375" s="15"/>
@@ -15473,7 +15473,7 @@
       <c r="L375" s="18"/>
       <c r="M375" s="21"/>
     </row>
-    <row r="376" spans="7:13">
+    <row r="376" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G376" s="19"/>
       <c r="H376" s="14"/>
       <c r="I376" s="15"/>
@@ -15482,7 +15482,7 @@
       <c r="L376" s="18"/>
       <c r="M376" s="21"/>
     </row>
-    <row r="377" spans="7:13">
+    <row r="377" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G377" s="19"/>
       <c r="H377" s="14"/>
       <c r="I377" s="15"/>
@@ -15491,7 +15491,7 @@
       <c r="L377" s="18"/>
       <c r="M377" s="21"/>
     </row>
-    <row r="378" spans="7:13">
+    <row r="378" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G378" s="19"/>
       <c r="H378" s="14"/>
       <c r="I378" s="15"/>
@@ -15500,7 +15500,7 @@
       <c r="L378" s="18"/>
       <c r="M378" s="21"/>
     </row>
-    <row r="379" spans="7:13">
+    <row r="379" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G379" s="19"/>
       <c r="H379" s="14"/>
       <c r="I379" s="15"/>
@@ -15509,7 +15509,7 @@
       <c r="L379" s="18"/>
       <c r="M379" s="21"/>
     </row>
-    <row r="380" spans="7:13">
+    <row r="380" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G380" s="19"/>
       <c r="H380" s="14"/>
       <c r="I380" s="15"/>
@@ -15518,7 +15518,7 @@
       <c r="L380" s="18"/>
       <c r="M380" s="21"/>
     </row>
-    <row r="381" spans="7:13">
+    <row r="381" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G381" s="19"/>
       <c r="H381" s="14"/>
       <c r="I381" s="15"/>
@@ -15527,7 +15527,7 @@
       <c r="L381" s="18"/>
       <c r="M381" s="21"/>
     </row>
-    <row r="382" spans="7:13">
+    <row r="382" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G382" s="19"/>
       <c r="H382" s="14"/>
       <c r="I382" s="15"/>
@@ -15536,7 +15536,7 @@
       <c r="L382" s="18"/>
       <c r="M382" s="21"/>
     </row>
-    <row r="383" spans="7:13">
+    <row r="383" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G383" s="19"/>
       <c r="H383" s="14"/>
       <c r="I383" s="15"/>
@@ -15545,7 +15545,7 @@
       <c r="L383" s="18"/>
       <c r="M383" s="21"/>
     </row>
-    <row r="384" spans="7:13">
+    <row r="384" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G384" s="19"/>
       <c r="H384" s="14"/>
       <c r="I384" s="15"/>
@@ -15554,7 +15554,7 @@
       <c r="L384" s="18"/>
       <c r="M384" s="21"/>
     </row>
-    <row r="385" spans="7:13">
+    <row r="385" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G385" s="19"/>
       <c r="H385" s="14"/>
       <c r="I385" s="15"/>
@@ -15563,7 +15563,7 @@
       <c r="L385" s="18"/>
       <c r="M385" s="21"/>
     </row>
-    <row r="386" spans="7:13">
+    <row r="386" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G386" s="19"/>
       <c r="H386" s="14"/>
       <c r="I386" s="15"/>
@@ -15572,7 +15572,7 @@
       <c r="L386" s="18"/>
       <c r="M386" s="21"/>
     </row>
-    <row r="387" spans="7:13">
+    <row r="387" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G387" s="19"/>
       <c r="H387" s="14"/>
       <c r="I387" s="15"/>
@@ -15581,7 +15581,7 @@
       <c r="L387" s="18"/>
       <c r="M387" s="21"/>
     </row>
-    <row r="388" spans="7:13">
+    <row r="388" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G388" s="19"/>
       <c r="H388" s="14"/>
       <c r="I388" s="15"/>
@@ -15590,7 +15590,7 @@
       <c r="L388" s="18"/>
       <c r="M388" s="21"/>
     </row>
-    <row r="389" spans="7:13">
+    <row r="389" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G389" s="19"/>
       <c r="H389" s="14"/>
       <c r="I389" s="15"/>
@@ -15599,7 +15599,7 @@
       <c r="L389" s="18"/>
       <c r="M389" s="21"/>
     </row>
-    <row r="390" spans="7:13">
+    <row r="390" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G390" s="19"/>
       <c r="H390" s="14"/>
       <c r="I390" s="15"/>
@@ -15608,7 +15608,7 @@
       <c r="L390" s="18"/>
       <c r="M390" s="21"/>
     </row>
-    <row r="391" spans="7:13">
+    <row r="391" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G391" s="19"/>
       <c r="H391" s="14"/>
       <c r="I391" s="15"/>
@@ -15617,7 +15617,7 @@
       <c r="L391" s="18"/>
       <c r="M391" s="21"/>
     </row>
-    <row r="392" spans="7:13">
+    <row r="392" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G392" s="19"/>
       <c r="H392" s="14"/>
       <c r="I392" s="15"/>
@@ -15626,7 +15626,7 @@
       <c r="L392" s="18"/>
       <c r="M392" s="21"/>
     </row>
-    <row r="393" spans="7:13">
+    <row r="393" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G393" s="19"/>
       <c r="H393" s="14"/>
       <c r="I393" s="15"/>
@@ -15635,7 +15635,7 @@
       <c r="L393" s="18"/>
       <c r="M393" s="21"/>
     </row>
-    <row r="394" spans="7:13">
+    <row r="394" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G394" s="19"/>
       <c r="H394" s="14"/>
       <c r="I394" s="15"/>
@@ -15644,7 +15644,7 @@
       <c r="L394" s="18"/>
       <c r="M394" s="21"/>
     </row>
-    <row r="395" spans="7:13">
+    <row r="395" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G395" s="19"/>
       <c r="H395" s="14"/>
       <c r="I395" s="15"/>
@@ -15653,7 +15653,7 @@
       <c r="L395" s="18"/>
       <c r="M395" s="21"/>
     </row>
-    <row r="396" spans="7:13">
+    <row r="396" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G396" s="19"/>
       <c r="H396" s="14"/>
       <c r="I396" s="15"/>
@@ -15662,7 +15662,7 @@
       <c r="L396" s="18"/>
       <c r="M396" s="21"/>
     </row>
-    <row r="397" spans="7:13">
+    <row r="397" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G397" s="19"/>
       <c r="H397" s="14"/>
       <c r="I397" s="15"/>
@@ -15671,7 +15671,7 @@
       <c r="L397" s="18"/>
       <c r="M397" s="21"/>
     </row>
-    <row r="398" spans="7:13">
+    <row r="398" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G398" s="19"/>
       <c r="H398" s="14"/>
       <c r="I398" s="15"/>
@@ -15680,7 +15680,7 @@
       <c r="L398" s="18"/>
       <c r="M398" s="21"/>
     </row>
-    <row r="399" spans="7:13">
+    <row r="399" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G399" s="19"/>
       <c r="H399" s="14"/>
       <c r="I399" s="15"/>
@@ -15689,7 +15689,7 @@
       <c r="L399" s="18"/>
       <c r="M399" s="21"/>
     </row>
-    <row r="400" spans="7:13">
+    <row r="400" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G400" s="19"/>
       <c r="H400" s="14"/>
       <c r="I400" s="15"/>
@@ -15698,7 +15698,7 @@
       <c r="L400" s="18"/>
       <c r="M400" s="21"/>
     </row>
-    <row r="401" spans="7:13">
+    <row r="401" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G401" s="19"/>
       <c r="H401" s="14"/>
       <c r="I401" s="15"/>
@@ -15707,7 +15707,7 @@
       <c r="L401" s="18"/>
       <c r="M401" s="21"/>
     </row>
-    <row r="402" spans="7:13">
+    <row r="402" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G402" s="19"/>
       <c r="H402" s="14"/>
       <c r="I402" s="15"/>
@@ -15716,7 +15716,7 @@
       <c r="L402" s="18"/>
       <c r="M402" s="21"/>
     </row>
-    <row r="403" spans="7:13">
+    <row r="403" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G403" s="19"/>
       <c r="H403" s="14"/>
       <c r="I403" s="15"/>
@@ -15725,7 +15725,7 @@
       <c r="L403" s="18"/>
       <c r="M403" s="21"/>
     </row>
-    <row r="404" spans="7:13">
+    <row r="404" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G404" s="19"/>
       <c r="H404" s="14"/>
       <c r="I404" s="15"/>
@@ -15734,7 +15734,7 @@
       <c r="L404" s="18"/>
       <c r="M404" s="21"/>
     </row>
-    <row r="405" spans="7:13">
+    <row r="405" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G405" s="19"/>
       <c r="H405" s="14"/>
       <c r="I405" s="15"/>
@@ -15743,7 +15743,7 @@
       <c r="L405" s="18"/>
       <c r="M405" s="21"/>
     </row>
-    <row r="406" spans="7:13">
+    <row r="406" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G406" s="19"/>
       <c r="H406" s="14"/>
       <c r="I406" s="15"/>
@@ -15752,7 +15752,7 @@
       <c r="L406" s="18"/>
       <c r="M406" s="21"/>
     </row>
-    <row r="407" spans="7:13">
+    <row r="407" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G407" s="19"/>
       <c r="H407" s="14"/>
       <c r="I407" s="15"/>
@@ -15761,7 +15761,7 @@
       <c r="L407" s="18"/>
       <c r="M407" s="21"/>
     </row>
-    <row r="408" spans="7:13">
+    <row r="408" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G408" s="19"/>
       <c r="H408" s="14"/>
       <c r="I408" s="15"/>
@@ -15770,7 +15770,7 @@
       <c r="L408" s="18"/>
       <c r="M408" s="21"/>
     </row>
-    <row r="409" spans="7:13">
+    <row r="409" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G409" s="19"/>
       <c r="H409" s="14"/>
       <c r="I409" s="15"/>
@@ -15779,7 +15779,7 @@
       <c r="L409" s="18"/>
       <c r="M409" s="21"/>
     </row>
-    <row r="410" spans="7:13">
+    <row r="410" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G410" s="19"/>
       <c r="H410" s="14"/>
       <c r="I410" s="15"/>
@@ -15788,7 +15788,7 @@
       <c r="L410" s="18"/>
       <c r="M410" s="21"/>
     </row>
-    <row r="411" spans="7:13">
+    <row r="411" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G411" s="19"/>
       <c r="H411" s="14"/>
       <c r="I411" s="15"/>
@@ -15797,7 +15797,7 @@
       <c r="L411" s="18"/>
       <c r="M411" s="21"/>
     </row>
-    <row r="412" spans="7:13">
+    <row r="412" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G412" s="19"/>
       <c r="H412" s="14"/>
       <c r="I412" s="15"/>
@@ -15806,7 +15806,7 @@
       <c r="L412" s="18"/>
       <c r="M412" s="21"/>
     </row>
-    <row r="413" spans="7:13">
+    <row r="413" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G413" s="19"/>
       <c r="H413" s="14"/>
       <c r="I413" s="15"/>
@@ -15815,7 +15815,7 @@
       <c r="L413" s="18"/>
       <c r="M413" s="21"/>
     </row>
-    <row r="414" spans="7:13">
+    <row r="414" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G414" s="19"/>
       <c r="H414" s="14"/>
       <c r="I414" s="15"/>
@@ -15824,7 +15824,7 @@
       <c r="L414" s="18"/>
       <c r="M414" s="21"/>
     </row>
-    <row r="415" spans="7:13">
+    <row r="415" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G415" s="19"/>
       <c r="H415" s="14"/>
       <c r="I415" s="15"/>
@@ -15833,7 +15833,7 @@
       <c r="L415" s="18"/>
       <c r="M415" s="21"/>
     </row>
-    <row r="416" spans="7:13">
+    <row r="416" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G416" s="19"/>
       <c r="H416" s="14"/>
       <c r="I416" s="15"/>
@@ -15842,7 +15842,7 @@
       <c r="L416" s="18"/>
       <c r="M416" s="21"/>
     </row>
-    <row r="417" spans="7:13">
+    <row r="417" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G417" s="19"/>
       <c r="H417" s="14"/>
       <c r="I417" s="15"/>
@@ -15851,7 +15851,7 @@
       <c r="L417" s="18"/>
       <c r="M417" s="21"/>
     </row>
-    <row r="418" spans="7:13">
+    <row r="418" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G418" s="19"/>
       <c r="H418" s="14"/>
       <c r="I418" s="15"/>
@@ -15860,7 +15860,7 @@
       <c r="L418" s="18"/>
       <c r="M418" s="21"/>
     </row>
-    <row r="419" spans="7:13">
+    <row r="419" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G419" s="19"/>
       <c r="H419" s="14"/>
       <c r="I419" s="15"/>
@@ -15869,7 +15869,7 @@
       <c r="L419" s="18"/>
       <c r="M419" s="21"/>
     </row>
-    <row r="420" spans="7:13">
+    <row r="420" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G420" s="19"/>
       <c r="H420" s="14"/>
       <c r="I420" s="15"/>
@@ -15878,7 +15878,7 @@
       <c r="L420" s="18"/>
       <c r="M420" s="21"/>
     </row>
-    <row r="421" spans="7:13">
+    <row r="421" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G421" s="19"/>
       <c r="H421" s="14"/>
       <c r="I421" s="15"/>
@@ -15887,7 +15887,7 @@
       <c r="L421" s="18"/>
       <c r="M421" s="21"/>
     </row>
-    <row r="422" spans="7:13">
+    <row r="422" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G422" s="19"/>
       <c r="H422" s="14"/>
       <c r="I422" s="15"/>
@@ -15896,7 +15896,7 @@
       <c r="L422" s="18"/>
       <c r="M422" s="21"/>
     </row>
-    <row r="423" spans="7:13">
+    <row r="423" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G423" s="19"/>
       <c r="H423" s="14"/>
       <c r="I423" s="15"/>
@@ -15905,7 +15905,7 @@
       <c r="L423" s="18"/>
       <c r="M423" s="21"/>
     </row>
-    <row r="424" spans="7:13">
+    <row r="424" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G424" s="19"/>
       <c r="H424" s="14"/>
       <c r="I424" s="15"/>
@@ -15914,7 +15914,7 @@
       <c r="L424" s="18"/>
       <c r="M424" s="21"/>
     </row>
-    <row r="425" spans="7:13">
+    <row r="425" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G425" s="19"/>
       <c r="H425" s="14"/>
       <c r="I425" s="15"/>
@@ -15923,7 +15923,7 @@
       <c r="L425" s="18"/>
       <c r="M425" s="21"/>
     </row>
-    <row r="426" spans="7:13">
+    <row r="426" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G426" s="19"/>
       <c r="H426" s="14"/>
       <c r="I426" s="15"/>
@@ -15932,7 +15932,7 @@
       <c r="L426" s="18"/>
       <c r="M426" s="21"/>
     </row>
-    <row r="427" spans="7:13">
+    <row r="427" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G427" s="19"/>
       <c r="H427" s="14"/>
       <c r="I427" s="15"/>
@@ -15941,7 +15941,7 @@
       <c r="L427" s="18"/>
       <c r="M427" s="21"/>
     </row>
-    <row r="428" spans="7:13">
+    <row r="428" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G428" s="19"/>
       <c r="H428" s="14"/>
       <c r="I428" s="15"/>
@@ -15950,7 +15950,7 @@
       <c r="L428" s="18"/>
       <c r="M428" s="21"/>
     </row>
-    <row r="429" spans="7:13">
+    <row r="429" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G429" s="19"/>
       <c r="H429" s="14"/>
       <c r="I429" s="15"/>
@@ -15959,7 +15959,7 @@
       <c r="L429" s="18"/>
       <c r="M429" s="21"/>
     </row>
-    <row r="430" spans="7:13">
+    <row r="430" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G430" s="19"/>
       <c r="H430" s="14"/>
       <c r="I430" s="15"/>
@@ -15968,7 +15968,7 @@
       <c r="L430" s="18"/>
       <c r="M430" s="21"/>
     </row>
-    <row r="431" spans="7:13">
+    <row r="431" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G431" s="19"/>
       <c r="H431" s="14"/>
       <c r="I431" s="15"/>
@@ -15977,7 +15977,7 @@
       <c r="L431" s="18"/>
       <c r="M431" s="21"/>
     </row>
-    <row r="432" spans="7:13">
+    <row r="432" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G432" s="19"/>
       <c r="H432" s="14"/>
       <c r="I432" s="15"/>
@@ -15986,7 +15986,7 @@
       <c r="L432" s="18"/>
       <c r="M432" s="21"/>
     </row>
-    <row r="433" spans="7:13">
+    <row r="433" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G433" s="19"/>
       <c r="H433" s="14"/>
       <c r="I433" s="15"/>
@@ -15995,7 +15995,7 @@
       <c r="L433" s="18"/>
       <c r="M433" s="21"/>
     </row>
-    <row r="434" spans="7:13">
+    <row r="434" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G434" s="19"/>
       <c r="H434" s="14"/>
       <c r="I434" s="15"/>
@@ -16004,7 +16004,7 @@
       <c r="L434" s="18"/>
       <c r="M434" s="21"/>
     </row>
-    <row r="435" spans="7:13">
+    <row r="435" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G435" s="19"/>
       <c r="H435" s="14"/>
       <c r="I435" s="15"/>
@@ -16013,7 +16013,7 @@
       <c r="L435" s="18"/>
       <c r="M435" s="21"/>
     </row>
-    <row r="436" spans="7:13">
+    <row r="436" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G436" s="19"/>
       <c r="H436" s="14"/>
       <c r="I436" s="15"/>
@@ -16022,7 +16022,7 @@
       <c r="L436" s="18"/>
       <c r="M436" s="21"/>
     </row>
-    <row r="437" spans="7:13">
+    <row r="437" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G437" s="19"/>
       <c r="H437" s="14"/>
       <c r="I437" s="15"/>
@@ -16031,7 +16031,7 @@
       <c r="L437" s="18"/>
       <c r="M437" s="21"/>
     </row>
-    <row r="438" spans="7:13">
+    <row r="438" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G438" s="19"/>
       <c r="H438" s="14"/>
       <c r="I438" s="15"/>
@@ -16040,7 +16040,7 @@
       <c r="L438" s="18"/>
       <c r="M438" s="21"/>
     </row>
-    <row r="439" spans="7:13">
+    <row r="439" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G439" s="19"/>
       <c r="H439" s="14"/>
       <c r="I439" s="15"/>
@@ -16049,7 +16049,7 @@
       <c r="L439" s="18"/>
       <c r="M439" s="21"/>
     </row>
-    <row r="440" spans="7:13">
+    <row r="440" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G440" s="19"/>
       <c r="H440" s="14"/>
       <c r="I440" s="15"/>
@@ -16058,7 +16058,7 @@
       <c r="L440" s="18"/>
       <c r="M440" s="21"/>
     </row>
-    <row r="441" spans="7:13">
+    <row r="441" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G441" s="19"/>
       <c r="H441" s="14"/>
       <c r="I441" s="15"/>
@@ -16067,7 +16067,7 @@
       <c r="L441" s="18"/>
       <c r="M441" s="21"/>
     </row>
-    <row r="442" spans="7:13">
+    <row r="442" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G442" s="19"/>
       <c r="H442" s="14"/>
       <c r="I442" s="15"/>
@@ -16076,7 +16076,7 @@
       <c r="L442" s="18"/>
       <c r="M442" s="21"/>
     </row>
-    <row r="443" spans="7:13">
+    <row r="443" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G443" s="19"/>
       <c r="H443" s="14"/>
       <c r="I443" s="15"/>
@@ -16085,7 +16085,7 @@
       <c r="L443" s="18"/>
       <c r="M443" s="21"/>
     </row>
-    <row r="444" spans="7:13">
+    <row r="444" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G444" s="19"/>
       <c r="H444" s="14"/>
       <c r="I444" s="15"/>
@@ -16094,7 +16094,7 @@
       <c r="L444" s="18"/>
       <c r="M444" s="21"/>
     </row>
-    <row r="445" spans="7:13">
+    <row r="445" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G445" s="19"/>
       <c r="H445" s="14"/>
       <c r="I445" s="15"/>
@@ -16103,7 +16103,7 @@
       <c r="L445" s="18"/>
       <c r="M445" s="21"/>
     </row>
-    <row r="446" spans="7:13">
+    <row r="446" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G446" s="19"/>
       <c r="H446" s="14"/>
       <c r="I446" s="15"/>
@@ -16112,7 +16112,7 @@
       <c r="L446" s="18"/>
       <c r="M446" s="21"/>
     </row>
-    <row r="447" spans="7:13">
+    <row r="447" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G447" s="19"/>
       <c r="H447" s="14"/>
       <c r="I447" s="15"/>
@@ -16121,7 +16121,7 @@
       <c r="L447" s="18"/>
       <c r="M447" s="21"/>
     </row>
-    <row r="448" spans="7:13">
+    <row r="448" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G448" s="19"/>
       <c r="H448" s="14"/>
       <c r="I448" s="15"/>
@@ -16130,7 +16130,7 @@
       <c r="L448" s="18"/>
       <c r="M448" s="21"/>
     </row>
-    <row r="449" spans="7:13">
+    <row r="449" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G449" s="19"/>
       <c r="H449" s="14"/>
       <c r="I449" s="15"/>
@@ -16139,7 +16139,7 @@
       <c r="L449" s="18"/>
       <c r="M449" s="21"/>
     </row>
-    <row r="450" spans="7:13">
+    <row r="450" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G450" s="19"/>
       <c r="H450" s="14"/>
       <c r="I450" s="15"/>
@@ -16148,7 +16148,7 @@
       <c r="L450" s="18"/>
       <c r="M450" s="21"/>
     </row>
-    <row r="451" spans="7:13">
+    <row r="451" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G451" s="19"/>
       <c r="H451" s="14"/>
       <c r="I451" s="15"/>
@@ -16157,7 +16157,7 @@
       <c r="L451" s="18"/>
       <c r="M451" s="21"/>
     </row>
-    <row r="452" spans="7:13">
+    <row r="452" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G452" s="19"/>
       <c r="H452" s="14"/>
       <c r="I452" s="15"/>
@@ -16166,7 +16166,7 @@
       <c r="L452" s="18"/>
       <c r="M452" s="21"/>
     </row>
-    <row r="453" spans="7:13">
+    <row r="453" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G453" s="19"/>
       <c r="H453" s="14"/>
       <c r="I453" s="15"/>
@@ -16175,7 +16175,7 @@
       <c r="L453" s="18"/>
       <c r="M453" s="21"/>
     </row>
-    <row r="454" spans="7:13">
+    <row r="454" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G454" s="19"/>
       <c r="H454" s="14"/>
       <c r="I454" s="15"/>
@@ -16184,7 +16184,7 @@
       <c r="L454" s="18"/>
       <c r="M454" s="21"/>
     </row>
-    <row r="455" spans="7:13">
+    <row r="455" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G455" s="19"/>
       <c r="H455" s="14"/>
       <c r="I455" s="15"/>
@@ -16193,7 +16193,7 @@
       <c r="L455" s="18"/>
       <c r="M455" s="21"/>
     </row>
-    <row r="456" spans="7:13">
+    <row r="456" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G456" s="19"/>
       <c r="H456" s="14"/>
       <c r="I456" s="15"/>
@@ -16202,7 +16202,7 @@
       <c r="L456" s="18"/>
       <c r="M456" s="21"/>
     </row>
-    <row r="457" spans="7:13">
+    <row r="457" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G457" s="19"/>
       <c r="H457" s="14"/>
       <c r="I457" s="15"/>
@@ -16211,7 +16211,7 @@
       <c r="L457" s="18"/>
       <c r="M457" s="21"/>
     </row>
-    <row r="458" spans="7:13">
+    <row r="458" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G458" s="19"/>
       <c r="H458" s="14"/>
       <c r="I458" s="15"/>
@@ -16220,7 +16220,7 @@
       <c r="L458" s="18"/>
       <c r="M458" s="21"/>
     </row>
-    <row r="459" spans="7:13">
+    <row r="459" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G459" s="19"/>
       <c r="H459" s="14"/>
       <c r="I459" s="15"/>
@@ -16229,7 +16229,7 @@
       <c r="L459" s="18"/>
       <c r="M459" s="21"/>
     </row>
-    <row r="460" spans="7:13">
+    <row r="460" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G460" s="19"/>
       <c r="H460" s="14"/>
       <c r="I460" s="15"/>
@@ -16238,7 +16238,7 @@
       <c r="L460" s="18"/>
       <c r="M460" s="21"/>
     </row>
-    <row r="461" spans="7:13">
+    <row r="461" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G461" s="19"/>
       <c r="H461" s="14"/>
       <c r="I461" s="15"/>
@@ -16247,7 +16247,7 @@
       <c r="L461" s="18"/>
       <c r="M461" s="21"/>
     </row>
-    <row r="462" spans="7:13">
+    <row r="462" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G462" s="19"/>
       <c r="H462" s="14"/>
       <c r="I462" s="15"/>
@@ -16256,7 +16256,7 @@
       <c r="L462" s="18"/>
       <c r="M462" s="21"/>
     </row>
-    <row r="463" spans="7:13">
+    <row r="463" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G463" s="19"/>
       <c r="H463" s="14"/>
       <c r="I463" s="15"/>
@@ -16265,7 +16265,7 @@
       <c r="L463" s="18"/>
       <c r="M463" s="21"/>
     </row>
-    <row r="464" spans="7:13">
+    <row r="464" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G464" s="19"/>
       <c r="H464" s="14"/>
       <c r="I464" s="15"/>
@@ -16274,7 +16274,7 @@
       <c r="L464" s="18"/>
       <c r="M464" s="21"/>
     </row>
-    <row r="465" spans="7:13">
+    <row r="465" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G465" s="19"/>
       <c r="H465" s="14"/>
       <c r="I465" s="15"/>
@@ -16283,7 +16283,7 @@
       <c r="L465" s="18"/>
       <c r="M465" s="21"/>
     </row>
-    <row r="466" spans="7:13">
+    <row r="466" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G466" s="19"/>
       <c r="H466" s="14"/>
       <c r="I466" s="15"/>
@@ -16292,7 +16292,7 @@
       <c r="L466" s="18"/>
       <c r="M466" s="21"/>
     </row>
-    <row r="467" spans="7:13">
+    <row r="467" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G467" s="19"/>
       <c r="H467" s="14"/>
       <c r="I467" s="15"/>
@@ -16301,7 +16301,7 @@
       <c r="L467" s="18"/>
       <c r="M467" s="21"/>
     </row>
-    <row r="468" spans="7:13">
+    <row r="468" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G468" s="19"/>
       <c r="H468" s="14"/>
       <c r="I468" s="15"/>
@@ -16310,7 +16310,7 @@
       <c r="L468" s="18"/>
       <c r="M468" s="21"/>
     </row>
-    <row r="469" spans="7:13">
+    <row r="469" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G469" s="19"/>
       <c r="H469" s="14"/>
       <c r="I469" s="15"/>
@@ -16319,7 +16319,7 @@
       <c r="L469" s="18"/>
       <c r="M469" s="21"/>
     </row>
-    <row r="470" spans="7:13">
+    <row r="470" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G470" s="19"/>
       <c r="H470" s="14"/>
       <c r="I470" s="15"/>
@@ -16328,7 +16328,7 @@
       <c r="L470" s="18"/>
       <c r="M470" s="21"/>
     </row>
-    <row r="471" spans="7:13">
+    <row r="471" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G471" s="19"/>
       <c r="H471" s="14"/>
       <c r="I471" s="15"/>
@@ -16337,7 +16337,7 @@
       <c r="L471" s="18"/>
       <c r="M471" s="21"/>
     </row>
-    <row r="472" spans="7:13">
+    <row r="472" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G472" s="19"/>
       <c r="H472" s="14"/>
       <c r="I472" s="15"/>
@@ -16346,7 +16346,7 @@
       <c r="L472" s="18"/>
       <c r="M472" s="21"/>
     </row>
-    <row r="473" spans="7:13">
+    <row r="473" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G473" s="19"/>
       <c r="H473" s="14"/>
       <c r="I473" s="15"/>
@@ -16355,7 +16355,7 @@
       <c r="L473" s="18"/>
       <c r="M473" s="21"/>
     </row>
-    <row r="474" spans="7:13">
+    <row r="474" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G474" s="19"/>
       <c r="H474" s="14"/>
       <c r="I474" s="15"/>
@@ -16364,7 +16364,7 @@
       <c r="L474" s="18"/>
       <c r="M474" s="21"/>
     </row>
-    <row r="475" spans="7:13">
+    <row r="475" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G475" s="19"/>
       <c r="H475" s="14"/>
       <c r="I475" s="15"/>
@@ -16373,7 +16373,7 @@
       <c r="L475" s="18"/>
       <c r="M475" s="21"/>
     </row>
-    <row r="476" spans="7:13">
+    <row r="476" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G476" s="19"/>
       <c r="H476" s="14"/>
       <c r="I476" s="15"/>
@@ -16382,7 +16382,7 @@
       <c r="L476" s="18"/>
       <c r="M476" s="21"/>
     </row>
-    <row r="477" spans="7:13">
+    <row r="477" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G477" s="19"/>
       <c r="H477" s="14"/>
       <c r="I477" s="15"/>
@@ -16391,7 +16391,7 @@
       <c r="L477" s="18"/>
       <c r="M477" s="21"/>
     </row>
-    <row r="478" spans="7:13">
+    <row r="478" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G478" s="19"/>
       <c r="H478" s="14"/>
       <c r="I478" s="15"/>
@@ -16400,7 +16400,7 @@
       <c r="L478" s="18"/>
       <c r="M478" s="21"/>
     </row>
-    <row r="479" spans="7:13">
+    <row r="479" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G479" s="19"/>
       <c r="H479" s="14"/>
       <c r="I479" s="15"/>
@@ -16409,7 +16409,7 @@
       <c r="L479" s="18"/>
       <c r="M479" s="21"/>
     </row>
-    <row r="480" spans="7:13">
+    <row r="480" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G480" s="19"/>
       <c r="H480" s="14"/>
       <c r="I480" s="15"/>
@@ -16418,7 +16418,7 @@
       <c r="L480" s="18"/>
       <c r="M480" s="21"/>
     </row>
-    <row r="481" spans="7:13">
+    <row r="481" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G481" s="19"/>
       <c r="H481" s="14"/>
       <c r="I481" s="15"/>
@@ -16427,7 +16427,7 @@
       <c r="L481" s="18"/>
       <c r="M481" s="21"/>
     </row>
-    <row r="482" spans="7:13">
+    <row r="482" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G482" s="19"/>
       <c r="H482" s="14"/>
       <c r="I482" s="15"/>
@@ -16436,7 +16436,7 @@
       <c r="L482" s="18"/>
       <c r="M482" s="21"/>
     </row>
-    <row r="483" spans="7:13">
+    <row r="483" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G483" s="19"/>
       <c r="H483" s="14"/>
       <c r="I483" s="15"/>
@@ -16445,7 +16445,7 @@
       <c r="L483" s="18"/>
       <c r="M483" s="21"/>
     </row>
-    <row r="484" spans="7:13">
+    <row r="484" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G484" s="19"/>
       <c r="H484" s="14"/>
       <c r="I484" s="15"/>
@@ -16454,7 +16454,7 @@
       <c r="L484" s="18"/>
       <c r="M484" s="21"/>
     </row>
-    <row r="485" spans="7:13">
+    <row r="485" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G485" s="19"/>
       <c r="H485" s="14"/>
       <c r="I485" s="15"/>
@@ -16463,7 +16463,7 @@
       <c r="L485" s="18"/>
       <c r="M485" s="21"/>
     </row>
-    <row r="486" spans="7:13">
+    <row r="486" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G486" s="19"/>
       <c r="H486" s="14"/>
       <c r="I486" s="15"/>
@@ -16472,7 +16472,7 @@
       <c r="L486" s="18"/>
       <c r="M486" s="21"/>
     </row>
-    <row r="487" spans="7:13">
+    <row r="487" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G487" s="19"/>
       <c r="H487" s="14"/>
       <c r="I487" s="15"/>
@@ -16481,7 +16481,7 @@
       <c r="L487" s="18"/>
       <c r="M487" s="21"/>
     </row>
-    <row r="488" spans="7:13">
+    <row r="488" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G488" s="19"/>
       <c r="H488" s="14"/>
       <c r="I488" s="15"/>
@@ -16490,7 +16490,7 @@
       <c r="L488" s="18"/>
       <c r="M488" s="21"/>
     </row>
-    <row r="489" spans="7:13">
+    <row r="489" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G489" s="19"/>
       <c r="H489" s="14"/>
       <c r="I489" s="15"/>
@@ -16499,7 +16499,7 @@
       <c r="L489" s="18"/>
       <c r="M489" s="21"/>
     </row>
-    <row r="490" spans="7:13">
+    <row r="490" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G490" s="19"/>
       <c r="H490" s="14"/>
       <c r="I490" s="15"/>
@@ -16508,7 +16508,7 @@
       <c r="L490" s="18"/>
       <c r="M490" s="21"/>
     </row>
-    <row r="491" spans="7:13">
+    <row r="491" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G491" s="19"/>
       <c r="H491" s="14"/>
       <c r="I491" s="15"/>
@@ -16517,7 +16517,7 @@
       <c r="L491" s="18"/>
       <c r="M491" s="21"/>
     </row>
-    <row r="492" spans="7:13">
+    <row r="492" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G492" s="19"/>
       <c r="H492" s="14"/>
       <c r="I492" s="15"/>
@@ -16526,7 +16526,7 @@
       <c r="L492" s="18"/>
       <c r="M492" s="21"/>
     </row>
-    <row r="493" spans="7:13">
+    <row r="493" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G493" s="19"/>
       <c r="H493" s="14"/>
       <c r="I493" s="15"/>
@@ -16535,7 +16535,7 @@
       <c r="L493" s="18"/>
       <c r="M493" s="21"/>
     </row>
-    <row r="494" spans="7:13">
+    <row r="494" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G494" s="19"/>
       <c r="H494" s="14"/>
       <c r="I494" s="15"/>
@@ -16544,7 +16544,7 @@
       <c r="L494" s="18"/>
       <c r="M494" s="21"/>
     </row>
-    <row r="495" spans="7:13">
+    <row r="495" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G495" s="19"/>
       <c r="H495" s="14"/>
       <c r="I495" s="15"/>
@@ -16553,7 +16553,7 @@
       <c r="L495" s="18"/>
       <c r="M495" s="21"/>
     </row>
-    <row r="496" spans="7:13">
+    <row r="496" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G496" s="19"/>
       <c r="H496" s="14"/>
       <c r="I496" s="15"/>
@@ -16562,7 +16562,7 @@
       <c r="L496" s="18"/>
       <c r="M496" s="21"/>
     </row>
-    <row r="497" spans="7:13">
+    <row r="497" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G497" s="19"/>
       <c r="H497" s="14"/>
       <c r="I497" s="15"/>
@@ -16571,7 +16571,7 @@
       <c r="L497" s="18"/>
       <c r="M497" s="21"/>
     </row>
-    <row r="498" spans="7:13">
+    <row r="498" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G498" s="19"/>
       <c r="H498" s="14"/>
       <c r="I498" s="15"/>
@@ -16580,7 +16580,7 @@
       <c r="L498" s="18"/>
       <c r="M498" s="21"/>
     </row>
-    <row r="499" spans="7:13">
+    <row r="499" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G499" s="19"/>
       <c r="H499" s="14"/>
       <c r="I499" s="15"/>
@@ -16589,7 +16589,7 @@
       <c r="L499" s="18"/>
       <c r="M499" s="21"/>
     </row>
-    <row r="500" spans="7:13">
+    <row r="500" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G500" s="19"/>
       <c r="H500" s="14"/>
       <c r="I500" s="15"/>
@@ -16598,7 +16598,7 @@
       <c r="L500" s="18"/>
       <c r="M500" s="21"/>
     </row>
-    <row r="501" spans="7:13">
+    <row r="501" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G501" s="19"/>
       <c r="H501" s="14"/>
       <c r="I501" s="15"/>
@@ -16607,7 +16607,7 @@
       <c r="L501" s="18"/>
       <c r="M501" s="21"/>
     </row>
-    <row r="502" spans="7:13">
+    <row r="502" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G502" s="19"/>
       <c r="H502" s="14"/>
       <c r="I502" s="15"/>
@@ -16616,7 +16616,7 @@
       <c r="L502" s="18"/>
       <c r="M502" s="21"/>
     </row>
-    <row r="503" spans="7:13">
+    <row r="503" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G503" s="19"/>
       <c r="H503" s="14"/>
       <c r="I503" s="15"/>
@@ -16625,7 +16625,7 @@
       <c r="L503" s="18"/>
       <c r="M503" s="21"/>
     </row>
-    <row r="504" spans="7:13">
+    <row r="504" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G504" s="19"/>
       <c r="H504" s="14"/>
       <c r="I504" s="15"/>
@@ -16634,7 +16634,7 @@
       <c r="L504" s="18"/>
       <c r="M504" s="21"/>
     </row>
-    <row r="505" spans="7:13">
+    <row r="505" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G505" s="19"/>
       <c r="H505" s="14"/>
       <c r="I505" s="15"/>
@@ -16643,7 +16643,7 @@
       <c r="L505" s="18"/>
       <c r="M505" s="21"/>
     </row>
-    <row r="506" spans="7:13">
+    <row r="506" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G506" s="19"/>
       <c r="H506" s="14"/>
       <c r="I506" s="15"/>
@@ -16652,7 +16652,7 @@
       <c r="L506" s="18"/>
       <c r="M506" s="21"/>
     </row>
-    <row r="507" spans="7:13">
+    <row r="507" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G507" s="19"/>
       <c r="H507" s="14"/>
       <c r="I507" s="15"/>
@@ -16661,7 +16661,7 @@
       <c r="L507" s="18"/>
       <c r="M507" s="21"/>
     </row>
-    <row r="508" spans="7:13">
+    <row r="508" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G508" s="19"/>
       <c r="H508" s="14"/>
       <c r="I508" s="15"/>
@@ -16670,7 +16670,7 @@
       <c r="L508" s="18"/>
       <c r="M508" s="21"/>
     </row>
-    <row r="509" spans="7:13">
+    <row r="509" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G509" s="19"/>
       <c r="H509" s="14"/>
       <c r="I509" s="15"/>
@@ -16679,7 +16679,7 @@
       <c r="L509" s="18"/>
       <c r="M509" s="21"/>
     </row>
-    <row r="510" spans="7:13">
+    <row r="510" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G510" s="19"/>
       <c r="H510" s="14"/>
       <c r="I510" s="15"/>
@@ -16688,7 +16688,7 @@
       <c r="L510" s="18"/>
       <c r="M510" s="21"/>
     </row>
-    <row r="511" spans="7:13">
+    <row r="511" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G511" s="19"/>
       <c r="H511" s="14"/>
       <c r="I511" s="15"/>
@@ -16697,7 +16697,7 @@
       <c r="L511" s="18"/>
       <c r="M511" s="21"/>
     </row>
-    <row r="512" spans="7:13">
+    <row r="512" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G512" s="19"/>
       <c r="H512" s="14"/>
       <c r="I512" s="15"/>
@@ -16706,7 +16706,7 @@
       <c r="L512" s="18"/>
       <c r="M512" s="21"/>
     </row>
-    <row r="513" spans="7:13">
+    <row r="513" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G513" s="19"/>
       <c r="H513" s="14"/>
       <c r="I513" s="15"/>
@@ -16715,7 +16715,7 @@
       <c r="L513" s="18"/>
       <c r="M513" s="21"/>
     </row>
-    <row r="514" spans="7:13">
+    <row r="514" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G514" s="19"/>
       <c r="H514" s="14"/>
       <c r="I514" s="15"/>
@@ -16724,7 +16724,7 @@
       <c r="L514" s="18"/>
       <c r="M514" s="21"/>
     </row>
-    <row r="515" spans="7:13">
+    <row r="515" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G515" s="19"/>
       <c r="H515" s="14"/>
       <c r="I515" s="15"/>
@@ -16733,7 +16733,7 @@
       <c r="L515" s="18"/>
       <c r="M515" s="21"/>
     </row>
-    <row r="516" spans="7:13">
+    <row r="516" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G516" s="19"/>
       <c r="H516" s="14"/>
       <c r="I516" s="15"/>
@@ -16742,7 +16742,7 @@
       <c r="L516" s="18"/>
       <c r="M516" s="21"/>
     </row>
-    <row r="517" spans="7:13">
+    <row r="517" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G517" s="19"/>
       <c r="H517" s="14"/>
       <c r="I517" s="15"/>
@@ -16751,7 +16751,7 @@
       <c r="L517" s="18"/>
       <c r="M517" s="21"/>
     </row>
-    <row r="518" spans="7:13">
+    <row r="518" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G518" s="19"/>
       <c r="H518" s="14"/>
       <c r="I518" s="15"/>
@@ -16760,7 +16760,7 @@
       <c r="L518" s="18"/>
       <c r="M518" s="21"/>
     </row>
-    <row r="519" spans="7:13">
+    <row r="519" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G519" s="19"/>
       <c r="H519" s="14"/>
       <c r="I519" s="15"/>
@@ -16769,7 +16769,7 @@
       <c r="L519" s="18"/>
       <c r="M519" s="21"/>
     </row>
-    <row r="520" spans="7:13">
+    <row r="520" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G520" s="19"/>
       <c r="H520" s="14"/>
       <c r="I520" s="15"/>
@@ -16778,7 +16778,7 @@
       <c r="L520" s="18"/>
       <c r="M520" s="21"/>
     </row>
-    <row r="521" spans="7:13">
+    <row r="521" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G521" s="19"/>
       <c r="H521" s="14"/>
       <c r="I521" s="15"/>
@@ -16787,7 +16787,7 @@
       <c r="L521" s="18"/>
       <c r="M521" s="21"/>
     </row>
-    <row r="522" spans="7:13">
+    <row r="522" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G522" s="19"/>
       <c r="H522" s="14"/>
       <c r="I522" s="15"/>
@@ -16796,7 +16796,7 @@
       <c r="L522" s="18"/>
       <c r="M522" s="21"/>
     </row>
-    <row r="523" spans="7:13">
+    <row r="523" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G523" s="19"/>
       <c r="H523" s="14"/>
       <c r="I523" s="15"/>
@@ -16805,7 +16805,7 @@
       <c r="L523" s="18"/>
       <c r="M523" s="21"/>
     </row>
-    <row r="524" spans="7:13">
+    <row r="524" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G524" s="19"/>
       <c r="H524" s="14"/>
       <c r="I524" s="15"/>
@@ -16814,7 +16814,7 @@
       <c r="L524" s="18"/>
       <c r="M524" s="21"/>
     </row>
-    <row r="525" spans="7:13">
+    <row r="525" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G525" s="19"/>
       <c r="H525" s="14"/>
       <c r="I525" s="15"/>
@@ -16823,7 +16823,7 @@
       <c r="L525" s="18"/>
       <c r="M525" s="21"/>
     </row>
-    <row r="526" spans="7:13">
+    <row r="526" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G526" s="19"/>
       <c r="H526" s="14"/>
       <c r="I526" s="15"/>
@@ -16832,7 +16832,7 @@
       <c r="L526" s="18"/>
       <c r="M526" s="21"/>
     </row>
-    <row r="527" spans="7:13">
+    <row r="527" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G527" s="19"/>
       <c r="H527" s="14"/>
       <c r="I527" s="15"/>
@@ -16841,7 +16841,7 @@
       <c r="L527" s="18"/>
       <c r="M527" s="21"/>
     </row>
-    <row r="528" spans="7:13">
+    <row r="528" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G528" s="19"/>
       <c r="H528" s="14"/>
       <c r="I528" s="15"/>
@@ -16850,7 +16850,7 @@
       <c r="L528" s="18"/>
       <c r="M528" s="21"/>
     </row>
-    <row r="529" spans="7:13">
+    <row r="529" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G529" s="19"/>
       <c r="H529" s="14"/>
       <c r="I529" s="15"/>
@@ -16859,7 +16859,7 @@
       <c r="L529" s="18"/>
       <c r="M529" s="21"/>
     </row>
-    <row r="530" spans="7:13">
+    <row r="530" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G530" s="19"/>
       <c r="H530" s="14"/>
       <c r="I530" s="15"/>
@@ -16868,7 +16868,7 @@
       <c r="L530" s="18"/>
       <c r="M530" s="21"/>
     </row>
-    <row r="531" spans="7:13">
+    <row r="531" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G531" s="19"/>
       <c r="H531" s="14"/>
       <c r="I531" s="15"/>
@@ -16877,7 +16877,7 @@
       <c r="L531" s="18"/>
       <c r="M531" s="21"/>
     </row>
-    <row r="532" spans="7:13">
+    <row r="532" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G532" s="19"/>
       <c r="H532" s="14"/>
       <c r="I532" s="15"/>
@@ -16886,7 +16886,7 @@
       <c r="L532" s="18"/>
       <c r="M532" s="21"/>
     </row>
-    <row r="533" spans="7:13">
+    <row r="533" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G533" s="19"/>
       <c r="H533" s="14"/>
       <c r="I533" s="15"/>
@@ -16895,7 +16895,7 @@
       <c r="L533" s="18"/>
       <c r="M533" s="21"/>
     </row>
-    <row r="534" spans="7:13">
+    <row r="534" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G534" s="19"/>
       <c r="H534" s="14"/>
       <c r="I534" s="15"/>
@@ -16904,7 +16904,7 @@
       <c r="L534" s="18"/>
       <c r="M534" s="21"/>
     </row>
-    <row r="535" spans="7:13">
+    <row r="535" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G535" s="19"/>
       <c r="H535" s="14"/>
       <c r="I535" s="15"/>
@@ -16913,7 +16913,7 @@
       <c r="L535" s="18"/>
       <c r="M535" s="21"/>
     </row>
-    <row r="536" spans="7:13">
+    <row r="536" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G536" s="19"/>
       <c r="H536" s="14"/>
       <c r="I536" s="15"/>
@@ -16922,7 +16922,7 @@
       <c r="L536" s="18"/>
       <c r="M536" s="21"/>
     </row>
-    <row r="537" spans="7:13">
+    <row r="537" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G537" s="19"/>
       <c r="H537" s="14"/>
       <c r="I537" s="15"/>
@@ -16931,7 +16931,7 @@
       <c r="L537" s="18"/>
       <c r="M537" s="21"/>
     </row>
-    <row r="538" spans="7:13">
+    <row r="538" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G538" s="19"/>
       <c r="H538" s="14"/>
       <c r="I538" s="15"/>
@@ -16940,7 +16940,7 @@
       <c r="L538" s="18"/>
       <c r="M538" s="21"/>
     </row>
-    <row r="539" spans="7:13">
+    <row r="539" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G539" s="19"/>
       <c r="H539" s="14"/>
       <c r="I539" s="15"/>
@@ -16949,7 +16949,7 @@
       <c r="L539" s="18"/>
       <c r="M539" s="21"/>
     </row>
-    <row r="540" spans="7:13">
+    <row r="540" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G540" s="19"/>
       <c r="H540" s="14"/>
       <c r="I540" s="15"/>
@@ -16958,7 +16958,7 @@
       <c r="L540" s="18"/>
       <c r="M540" s="21"/>
     </row>
-    <row r="541" spans="7:13">
+    <row r="541" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G541" s="19"/>
       <c r="H541" s="14"/>
       <c r="I541" s="15"/>
@@ -16967,7 +16967,7 @@
       <c r="L541" s="18"/>
       <c r="M541" s="21"/>
     </row>
-    <row r="542" spans="7:13">
+    <row r="542" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G542" s="19"/>
       <c r="H542" s="14"/>
       <c r="I542" s="15"/>
@@ -16976,7 +16976,7 @@
       <c r="L542" s="18"/>
       <c r="M542" s="21"/>
     </row>
-    <row r="543" spans="7:13">
+    <row r="543" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G543" s="19"/>
       <c r="H543" s="14"/>
       <c r="I543" s="15"/>
@@ -16985,7 +16985,7 @@
       <c r="L543" s="18"/>
       <c r="M543" s="21"/>
     </row>
-    <row r="544" spans="7:13">
+    <row r="544" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G544" s="19"/>
       <c r="H544" s="14"/>
       <c r="I544" s="15"/>
@@ -16994,7 +16994,7 @@
       <c r="L544" s="18"/>
       <c r="M544" s="21"/>
     </row>
-    <row r="545" spans="7:13">
+    <row r="545" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G545" s="19"/>
       <c r="H545" s="14"/>
       <c r="I545" s="15"/>
@@ -17003,7 +17003,7 @@
       <c r="L545" s="18"/>
       <c r="M545" s="21"/>
     </row>
-    <row r="546" spans="7:13">
+    <row r="546" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G546" s="19"/>
       <c r="H546" s="14"/>
       <c r="I546" s="15"/>
@@ -17012,7 +17012,7 @@
       <c r="L546" s="18"/>
       <c r="M546" s="21"/>
     </row>
-    <row r="547" spans="7:13">
+    <row r="547" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G547" s="19"/>
       <c r="H547" s="14"/>
       <c r="I547" s="15"/>
@@ -17021,7 +17021,7 @@
       <c r="L547" s="18"/>
       <c r="M547" s="21"/>
     </row>
-    <row r="548" spans="7:13">
+    <row r="548" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G548" s="19"/>
       <c r="H548" s="14"/>
       <c r="I548" s="15"/>
@@ -17030,7 +17030,7 @@
       <c r="L548" s="18"/>
       <c r="M548" s="21"/>
     </row>
-    <row r="549" spans="7:13">
+    <row r="549" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G549" s="19"/>
       <c r="H549" s="14"/>
       <c r="I549" s="15"/>
@@ -17039,7 +17039,7 @@
       <c r="L549" s="18"/>
       <c r="M549" s="21"/>
     </row>
-    <row r="550" spans="7:13">
+    <row r="550" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G550" s="19"/>
       <c r="H550" s="14"/>
       <c r="I550" s="15"/>
@@ -17048,7 +17048,7 @@
       <c r="L550" s="18"/>
       <c r="M550" s="21"/>
     </row>
-    <row r="551" spans="7:13">
+    <row r="551" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G551" s="19"/>
       <c r="H551" s="14"/>
       <c r="I551" s="15"/>
@@ -17057,7 +17057,7 @@
       <c r="L551" s="18"/>
       <c r="M551" s="21"/>
     </row>
-    <row r="552" spans="7:13">
+    <row r="552" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G552" s="19"/>
       <c r="H552" s="14"/>
       <c r="I552" s="15"/>
@@ -17066,7 +17066,7 @@
       <c r="L552" s="18"/>
       <c r="M552" s="21"/>
     </row>
-    <row r="553" spans="7:13">
+    <row r="553" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G553" s="19"/>
       <c r="H553" s="14"/>
       <c r="I553" s="15"/>
@@ -17075,7 +17075,7 @@
       <c r="L553" s="18"/>
       <c r="M553" s="21"/>
     </row>
-    <row r="554" spans="7:13">
+    <row r="554" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G554" s="19"/>
       <c r="H554" s="14"/>
       <c r="I554" s="15"/>
@@ -17084,7 +17084,7 @@
       <c r="L554" s="18"/>
       <c r="M554" s="21"/>
     </row>
-    <row r="555" spans="7:13">
+    <row r="555" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G555" s="19"/>
       <c r="H555" s="14"/>
       <c r="I555" s="15"/>
@@ -17093,7 +17093,7 @@
       <c r="L555" s="18"/>
       <c r="M555" s="21"/>
     </row>
-    <row r="556" spans="7:13">
+    <row r="556" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G556" s="19"/>
       <c r="H556" s="14"/>
       <c r="I556" s="15"/>
@@ -17102,7 +17102,7 @@
       <c r="L556" s="18"/>
       <c r="M556" s="21"/>
     </row>
-    <row r="557" spans="7:13">
+    <row r="557" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G557" s="19"/>
       <c r="H557" s="14"/>
       <c r="I557" s="15"/>
@@ -17111,7 +17111,7 @@
       <c r="L557" s="18"/>
       <c r="M557" s="21"/>
     </row>
-    <row r="558" spans="7:13">
+    <row r="558" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G558" s="19"/>
       <c r="H558" s="14"/>
       <c r="I558" s="15"/>
@@ -17120,7 +17120,7 @@
       <c r="L558" s="18"/>
       <c r="M558" s="21"/>
     </row>
-    <row r="559" spans="7:13">
+    <row r="559" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G559" s="19"/>
       <c r="H559" s="14"/>
       <c r="I559" s="15"/>
@@ -17129,7 +17129,7 @@
       <c r="L559" s="18"/>
       <c r="M559" s="21"/>
     </row>
-    <row r="560" spans="7:13">
+    <row r="560" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G560" s="19"/>
       <c r="H560" s="14"/>
       <c r="I560" s="15"/>
@@ -17138,7 +17138,7 @@
       <c r="L560" s="18"/>
       <c r="M560" s="21"/>
     </row>
-    <row r="561" spans="7:13">
+    <row r="561" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G561" s="19"/>
       <c r="H561" s="14"/>
       <c r="I561" s="15"/>
@@ -17147,7 +17147,7 @@
       <c r="L561" s="18"/>
       <c r="M561" s="21"/>
     </row>
-    <row r="562" spans="7:13">
+    <row r="562" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G562" s="19"/>
       <c r="H562" s="14"/>
       <c r="I562" s="15"/>
@@ -17156,7 +17156,7 @@
       <c r="L562" s="18"/>
       <c r="M562" s="21"/>
     </row>
-    <row r="563" spans="7:13">
+    <row r="563" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G563" s="19"/>
       <c r="H563" s="14"/>
       <c r="I563" s="15"/>
@@ -17165,7 +17165,7 @@
       <c r="L563" s="18"/>
       <c r="M563" s="21"/>
     </row>
-    <row r="564" spans="7:13">
+    <row r="564" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G564" s="19"/>
       <c r="H564" s="14"/>
       <c r="I564" s="15"/>
@@ -17174,7 +17174,7 @@
       <c r="L564" s="18"/>
       <c r="M564" s="21"/>
     </row>
-    <row r="565" spans="7:13">
+    <row r="565" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G565" s="19"/>
       <c r="H565" s="14"/>
       <c r="I565" s="15"/>
@@ -17183,7 +17183,7 @@
       <c r="L565" s="18"/>
       <c r="M565" s="21"/>
     </row>
-    <row r="566" spans="7:13">
+    <row r="566" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G566" s="19"/>
       <c r="H566" s="14"/>
       <c r="I566" s="15"/>
@@ -17192,7 +17192,7 @@
       <c r="L566" s="18"/>
       <c r="M566" s="21"/>
     </row>
-    <row r="567" spans="7:13">
+    <row r="567" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G567" s="19"/>
       <c r="H567" s="14"/>
       <c r="I567" s="15"/>
@@ -17201,7 +17201,7 @@
       <c r="L567" s="18"/>
       <c r="M567" s="21"/>
     </row>
-    <row r="568" spans="7:13">
+    <row r="568" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G568" s="19"/>
       <c r="H568" s="14"/>
       <c r="I568" s="15"/>
@@ -17210,7 +17210,7 @@
       <c r="L568" s="18"/>
       <c r="M568" s="21"/>
     </row>
-    <row r="569" spans="7:13">
+    <row r="569" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G569" s="19"/>
       <c r="H569" s="14"/>
       <c r="I569" s="15"/>
@@ -17219,7 +17219,7 @@
       <c r="L569" s="18"/>
       <c r="M569" s="21"/>
     </row>
-    <row r="570" spans="7:13">
+    <row r="570" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G570" s="19"/>
       <c r="H570" s="14"/>
       <c r="I570" s="15"/>
@@ -17228,7 +17228,7 @@
       <c r="L570" s="18"/>
       <c r="M570" s="21"/>
     </row>
-    <row r="571" spans="7:13">
+    <row r="571" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G571" s="19"/>
       <c r="H571" s="14"/>
       <c r="I571" s="15"/>
@@ -17237,7 +17237,7 @@
       <c r="L571" s="18"/>
       <c r="M571" s="21"/>
     </row>
-    <row r="572" spans="7:13">
+    <row r="572" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G572" s="19"/>
       <c r="H572" s="14"/>
       <c r="I572" s="15"/>
@@ -17246,7 +17246,7 @@
       <c r="L572" s="18"/>
       <c r="M572" s="21"/>
     </row>
-    <row r="573" spans="7:13">
+    <row r="573" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G573" s="19"/>
       <c r="H573" s="14"/>
       <c r="I573" s="15"/>
@@ -17255,7 +17255,7 @@
       <c r="L573" s="18"/>
       <c r="M573" s="21"/>
     </row>
-    <row r="574" spans="7:13">
+    <row r="574" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G574" s="19"/>
       <c r="H574" s="14"/>
       <c r="I574" s="15"/>
@@ -17264,7 +17264,7 @@
       <c r="L574" s="18"/>
       <c r="M574" s="21"/>
     </row>
-    <row r="575" spans="7:13">
+    <row r="575" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G575" s="19"/>
       <c r="H575" s="14"/>
       <c r="I575" s="15"/>
@@ -17273,7 +17273,7 @@
       <c r="L575" s="18"/>
       <c r="M575" s="21"/>
     </row>
-    <row r="576" spans="7:13">
+    <row r="576" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G576" s="19"/>
       <c r="H576" s="14"/>
       <c r="I576" s="15"/>
@@ -17282,7 +17282,7 @@
       <c r="L576" s="18"/>
       <c r="M576" s="21"/>
     </row>
-    <row r="577" spans="7:13">
+    <row r="577" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G577" s="19"/>
       <c r="H577" s="14"/>
       <c r="I577" s="15"/>
@@ -17291,7 +17291,7 @@
       <c r="L577" s="18"/>
       <c r="M577" s="21"/>
     </row>
-    <row r="578" spans="7:13">
+    <row r="578" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G578" s="19"/>
       <c r="H578" s="14"/>
       <c r="I578" s="15"/>
@@ -17300,7 +17300,7 @@
       <c r="L578" s="18"/>
       <c r="M578" s="21"/>
     </row>
-    <row r="579" spans="7:13">
+    <row r="579" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G579" s="19"/>
       <c r="H579" s="14"/>
       <c r="I579" s="15"/>
@@ -17309,7 +17309,7 @@
       <c r="L579" s="18"/>
       <c r="M579" s="21"/>
     </row>
-    <row r="580" spans="7:13">
+    <row r="580" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G580" s="19"/>
       <c r="H580" s="14"/>
       <c r="I580" s="15"/>
@@ -17318,7 +17318,7 @@
       <c r="L580" s="18"/>
       <c r="M580" s="21"/>
     </row>
-    <row r="581" spans="7:13">
+    <row r="581" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G581" s="19"/>
       <c r="H581" s="14"/>
       <c r="I581" s="15"/>
@@ -17327,7 +17327,7 @@
       <c r="L581" s="18"/>
       <c r="M581" s="21"/>
     </row>
-    <row r="582" spans="7:13">
+    <row r="582" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G582" s="19"/>
       <c r="H582" s="14"/>
       <c r="I582" s="15"/>
@@ -17336,7 +17336,7 @@
       <c r="L582" s="18"/>
       <c r="M582" s="21"/>
     </row>
-    <row r="583" spans="7:13">
+    <row r="583" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G583" s="19"/>
       <c r="H583" s="14"/>
       <c r="I583" s="15"/>
@@ -17345,7 +17345,7 @@
       <c r="L583" s="18"/>
       <c r="M583" s="21"/>
     </row>
-    <row r="584" spans="7:13">
+    <row r="584" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G584" s="19"/>
       <c r="H584" s="14"/>
       <c r="I584" s="15"/>
@@ -17354,7 +17354,7 @@
       <c r="L584" s="18"/>
       <c r="M584" s="21"/>
     </row>
-    <row r="585" spans="7:13">
+    <row r="585" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G585" s="19"/>
       <c r="H585" s="14"/>
       <c r="I585" s="15"/>
@@ -17363,7 +17363,7 @@
       <c r="L585" s="18"/>
       <c r="M585" s="21"/>
     </row>
-    <row r="586" spans="7:13">
+    <row r="586" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G586" s="19"/>
       <c r="H586" s="14"/>
       <c r="I586" s="15"/>
@@ -17372,7 +17372,7 @@
       <c r="L586" s="18"/>
       <c r="M586" s="21"/>
     </row>
-    <row r="587" spans="7:13">
+    <row r="587" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G587" s="19"/>
       <c r="H587" s="14"/>
       <c r="I587" s="15"/>
@@ -17381,7 +17381,7 @@
       <c r="L587" s="18"/>
       <c r="M587" s="21"/>
     </row>
-    <row r="588" spans="7:13">
+    <row r="588" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G588" s="19"/>
       <c r="H588" s="14"/>
       <c r="I588" s="15"/>
@@ -17390,7 +17390,7 @@
       <c r="L588" s="18"/>
       <c r="M588" s="21"/>
     </row>
-    <row r="589" spans="7:13">
+    <row r="589" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G589" s="19"/>
       <c r="H589" s="14"/>
       <c r="I589" s="15"/>
@@ -17399,7 +17399,7 @@
       <c r="L589" s="18"/>
       <c r="M589" s="21"/>
     </row>
-    <row r="590" spans="7:13">
+    <row r="590" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G590" s="19"/>
       <c r="H590" s="14"/>
       <c r="I590" s="15"/>
@@ -17408,7 +17408,7 @@
       <c r="L590" s="18"/>
       <c r="M590" s="21"/>
     </row>
-    <row r="591" spans="7:13">
+    <row r="591" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G591" s="19"/>
       <c r="H591" s="14"/>
       <c r="I591" s="15"/>
@@ -17417,7 +17417,7 @@
       <c r="L591" s="18"/>
       <c r="M591" s="21"/>
     </row>
-    <row r="592" spans="7:13">
+    <row r="592" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G592" s="19"/>
       <c r="H592" s="14"/>
       <c r="I592" s="15"/>
@@ -17426,7 +17426,7 @@
       <c r="L592" s="18"/>
       <c r="M592" s="21"/>
     </row>
-    <row r="593" spans="7:13">
+    <row r="593" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G593" s="19"/>
       <c r="H593" s="14"/>
       <c r="I593" s="15"/>
@@ -17435,7 +17435,7 @@
       <c r="L593" s="18"/>
       <c r="M593" s="21"/>
     </row>
-    <row r="594" spans="7:13">
+    <row r="594" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G594" s="19"/>
       <c r="H594" s="14"/>
       <c r="I594" s="15"/>
@@ -17444,7 +17444,7 @@
       <c r="L594" s="18"/>
       <c r="M594" s="21"/>
     </row>
-    <row r="595" spans="7:13">
+    <row r="595" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G595" s="19"/>
       <c r="H595" s="14"/>
       <c r="I595" s="15"/>
@@ -17453,7 +17453,7 @@
       <c r="L595" s="18"/>
       <c r="M595" s="21"/>
     </row>
-    <row r="596" spans="7:13">
+    <row r="596" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G596" s="19"/>
       <c r="H596" s="14"/>
       <c r="I596" s="15"/>
@@ -17462,7 +17462,7 @@
       <c r="L596" s="18"/>
       <c r="M596" s="21"/>
     </row>
-    <row r="597" spans="7:13">
+    <row r="597" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G597" s="19"/>
       <c r="H597" s="14"/>
       <c r="I597" s="15"/>
@@ -17471,7 +17471,7 @@
       <c r="L597" s="18"/>
       <c r="M597" s="21"/>
     </row>
-    <row r="598" spans="7:13">
+    <row r="598" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G598" s="19"/>
       <c r="H598" s="14"/>
       <c r="I598" s="15"/>
@@ -17480,7 +17480,7 @@
       <c r="L598" s="18"/>
       <c r="M598" s="21"/>
     </row>
-    <row r="599" spans="7:13">
+    <row r="599" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G599" s="19"/>
       <c r="H599" s="14"/>
       <c r="I599" s="15"/>
@@ -17489,7 +17489,7 @@
       <c r="L599" s="18"/>
       <c r="M599" s="21"/>
     </row>
-    <row r="600" spans="7:13">
+    <row r="600" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G600" s="19"/>
       <c r="H600" s="14"/>
       <c r="I600" s="15"/>
@@ -17498,7 +17498,7 @@
       <c r="L600" s="18"/>
       <c r="M600" s="21"/>
     </row>
-    <row r="601" spans="7:13">
+    <row r="601" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G601" s="19"/>
       <c r="H601" s="14"/>
       <c r="I601" s="15"/>
@@ -17507,7 +17507,7 @@
       <c r="L601" s="18"/>
       <c r="M601" s="21"/>
     </row>
-    <row r="602" spans="7:13">
+    <row r="602" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G602" s="19"/>
       <c r="H602" s="14"/>
       <c r="I602" s="15"/>
@@ -17516,7 +17516,7 @@
       <c r="L602" s="18"/>
       <c r="M602" s="21"/>
     </row>
-    <row r="603" spans="7:13">
+    <row r="603" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G603" s="19"/>
       <c r="H603" s="14"/>
       <c r="I603" s="15"/>
@@ -17525,7 +17525,7 @@
       <c r="L603" s="18"/>
       <c r="M603" s="21"/>
     </row>
-    <row r="604" spans="7:13">
+    <row r="604" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G604" s="19"/>
       <c r="H604" s="14"/>
       <c r="I604" s="15"/>
@@ -17534,7 +17534,7 @@
       <c r="L604" s="18"/>
       <c r="M604" s="21"/>
     </row>
-    <row r="605" spans="7:13">
+    <row r="605" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G605" s="19"/>
       <c r="H605" s="14"/>
       <c r="I605" s="15"/>
@@ -17543,7 +17543,7 @@
       <c r="L605" s="18"/>
       <c r="M605" s="21"/>
     </row>
-    <row r="606" spans="7:13">
+    <row r="606" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G606" s="19"/>
       <c r="H606" s="14"/>
       <c r="I606" s="15"/>
@@ -17552,7 +17552,7 @@
       <c r="L606" s="18"/>
       <c r="M606" s="21"/>
     </row>
-    <row r="607" spans="7:13">
+    <row r="607" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G607" s="19"/>
       <c r="H607" s="14"/>
       <c r="I607" s="15"/>
@@ -17561,7 +17561,7 @@
       <c r="L607" s="18"/>
       <c r="M607" s="21"/>
     </row>
-    <row r="608" spans="7:13">
+    <row r="608" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G608" s="19"/>
       <c r="H608" s="14"/>
       <c r="I608" s="15"/>
@@ -17570,7 +17570,7 @@
       <c r="L608" s="18"/>
       <c r="M608" s="21"/>
     </row>
-    <row r="609" spans="7:13">
+    <row r="609" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G609" s="19"/>
       <c r="H609" s="14"/>
       <c r="I609" s="15"/>
@@ -17579,7 +17579,7 @@
       <c r="L609" s="18"/>
       <c r="M609" s="21"/>
     </row>
-    <row r="610" spans="7:13">
+    <row r="610" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G610" s="19"/>
       <c r="H610" s="14"/>
       <c r="I610" s="15"/>
@@ -17588,7 +17588,7 @@
       <c r="L610" s="18"/>
       <c r="M610" s="21"/>
     </row>
-    <row r="611" spans="7:13">
+    <row r="611" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G611" s="19"/>
       <c r="H611" s="14"/>
       <c r="I611" s="15"/>
@@ -17597,7 +17597,7 @@
       <c r="L611" s="18"/>
       <c r="M611" s="21"/>
     </row>
-    <row r="612" spans="7:13">
+    <row r="612" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G612" s="19"/>
       <c r="H612" s="14"/>
       <c r="I612" s="15"/>
@@ -17606,7 +17606,7 @@
       <c r="L612" s="18"/>
       <c r="M612" s="21"/>
     </row>
-    <row r="613" spans="7:13">
+    <row r="613" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G613" s="19"/>
       <c r="H613" s="14"/>
       <c r="I613" s="15"/>
@@ -17615,7 +17615,7 @@
       <c r="L613" s="18"/>
       <c r="M613" s="21"/>
     </row>
-    <row r="614" spans="7:13">
+    <row r="614" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G614" s="19"/>
       <c r="H614" s="14"/>
       <c r="I614" s="15"/>
@@ -17624,7 +17624,7 @@
       <c r="L614" s="18"/>
       <c r="M614" s="21"/>
     </row>
-    <row r="615" spans="7:13">
+    <row r="615" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G615" s="19"/>
       <c r="H615" s="14"/>
       <c r="I615" s="15"/>
@@ -17633,7 +17633,7 @@
       <c r="L615" s="18"/>
       <c r="M615" s="21"/>
     </row>
-    <row r="616" spans="7:13">
+    <row r="616" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G616" s="19"/>
       <c r="H616" s="14"/>
       <c r="I616" s="15"/>
@@ -17642,7 +17642,7 @@
       <c r="L616" s="18"/>
       <c r="M616" s="21"/>
     </row>
-    <row r="617" spans="7:13">
+    <row r="617" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G617" s="19"/>
       <c r="H617" s="14"/>
       <c r="I617" s="15"/>
@@ -17651,7 +17651,7 @@
       <c r="L617" s="18"/>
       <c r="M617" s="21"/>
     </row>
-    <row r="618" spans="7:13">
+    <row r="618" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G618" s="19"/>
       <c r="H618" s="14"/>
       <c r="I618" s="15"/>
@@ -17660,7 +17660,7 @@
       <c r="L618" s="18"/>
       <c r="M618" s="21"/>
     </row>
-    <row r="619" spans="7:13">
+    <row r="619" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G619" s="19"/>
       <c r="H619" s="14"/>
       <c r="I619" s="15"/>
@@ -17669,7 +17669,7 @@
       <c r="L619" s="18"/>
       <c r="M619" s="21"/>
     </row>
-    <row r="620" spans="7:13">
+    <row r="620" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G620" s="19"/>
       <c r="H620" s="14"/>
       <c r="I620" s="15"/>
@@ -17678,7 +17678,7 @@
       <c r="L620" s="18"/>
       <c r="M620" s="21"/>
     </row>
-    <row r="621" spans="7:13">
+    <row r="621" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G621" s="19"/>
       <c r="H621" s="14"/>
       <c r="I621" s="15"/>
@@ -17687,7 +17687,7 @@
       <c r="L621" s="18"/>
       <c r="M621" s="21"/>
     </row>
-    <row r="622" spans="7:13">
+    <row r="622" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G622" s="19"/>
       <c r="H622" s="14"/>
       <c r="I622" s="15"/>
@@ -17696,7 +17696,7 @@
       <c r="L622" s="18"/>
       <c r="M622" s="21"/>
     </row>
-    <row r="623" spans="7:13">
+    <row r="623" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G623" s="19"/>
       <c r="H623" s="14"/>
       <c r="I623" s="15"/>
@@ -17705,7 +17705,7 @@
       <c r="L623" s="18"/>
       <c r="M623" s="21"/>
     </row>
-    <row r="624" spans="7:13">
+    <row r="624" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G624" s="19"/>
       <c r="H624" s="14"/>
       <c r="I624" s="15"/>
@@ -17714,7 +17714,7 @@
       <c r="L624" s="18"/>
       <c r="M624" s="21"/>
     </row>
-    <row r="625" spans="7:13">
+    <row r="625" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G625" s="19"/>
       <c r="H625" s="14"/>
       <c r="I625" s="15"/>
@@ -17723,7 +17723,7 @@
       <c r="L625" s="18"/>
       <c r="M625" s="21"/>
     </row>
-    <row r="626" spans="7:13">
+    <row r="626" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G626" s="19"/>
       <c r="H626" s="14"/>
       <c r="I626" s="15"/>
@@ -17732,7 +17732,7 @@
       <c r="L626" s="18"/>
       <c r="M626" s="21"/>
     </row>
-    <row r="627" spans="7:13">
+    <row r="627" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G627" s="19"/>
       <c r="H627" s="14"/>
       <c r="I627" s="15"/>
@@ -17741,7 +17741,7 @@
       <c r="L627" s="18"/>
       <c r="M627" s="21"/>
     </row>
-    <row r="628" spans="7:13">
+    <row r="628" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G628" s="19"/>
       <c r="H628" s="14"/>
       <c r="I628" s="15"/>
@@ -17750,7 +17750,7 @@
       <c r="L628" s="18"/>
       <c r="M628" s="21"/>
     </row>
-    <row r="629" spans="7:13">
+    <row r="629" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G629" s="19"/>
       <c r="H629" s="14"/>
       <c r="I629" s="15"/>
@@ -17759,7 +17759,7 @@
       <c r="L629" s="18"/>
       <c r="M629" s="21"/>
     </row>
-    <row r="630" spans="7:13">
+    <row r="630" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G630" s="19"/>
       <c r="H630" s="14"/>
       <c r="I630" s="15"/>
@@ -17768,7 +17768,7 @@
       <c r="L630" s="18"/>
       <c r="M630" s="21"/>
     </row>
-    <row r="631" spans="7:13">
+    <row r="631" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G631" s="19"/>
       <c r="H631" s="14"/>
       <c r="I631" s="15"/>
@@ -17777,7 +17777,7 @@
       <c r="L631" s="18"/>
       <c r="M631" s="21"/>
     </row>
-    <row r="632" spans="7:13">
+    <row r="632" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G632" s="19"/>
       <c r="H632" s="14"/>
       <c r="I632" s="15"/>
@@ -17786,7 +17786,7 @@
       <c r="L632" s="18"/>
       <c r="M632" s="21"/>
     </row>
-    <row r="633" spans="7:13">
+    <row r="633" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G633" s="19"/>
       <c r="H633" s="14"/>
       <c r="I633" s="15"/>
@@ -17795,7 +17795,7 @@
       <c r="L633" s="18"/>
       <c r="M633" s="21"/>
     </row>
-    <row r="634" spans="7:13">
+    <row r="634" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G634" s="19"/>
       <c r="H634" s="14"/>
       <c r="I634" s="15"/>
@@ -17804,7 +17804,7 @@
       <c r="L634" s="18"/>
       <c r="M634" s="21"/>
     </row>
-    <row r="635" spans="7:13">
+    <row r="635" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G635" s="19"/>
       <c r="H635" s="14"/>
       <c r="I635" s="15"/>
@@ -17813,7 +17813,7 @@
       <c r="L635" s="18"/>
       <c r="M635" s="21"/>
     </row>
-    <row r="636" spans="7:13">
+    <row r="636" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G636" s="19"/>
       <c r="H636" s="14"/>
       <c r="I636" s="15"/>
@@ -17822,7 +17822,7 @@
       <c r="L636" s="18"/>
       <c r="M636" s="21"/>
     </row>
-    <row r="637" spans="7:13">
+    <row r="637" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G637" s="19"/>
       <c r="H637" s="14"/>
       <c r="I637" s="15"/>
@@ -17831,7 +17831,7 @@
       <c r="L637" s="18"/>
       <c r="M637" s="21"/>
     </row>
-    <row r="638" spans="7:13">
+    <row r="638" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G638" s="19"/>
       <c r="H638" s="14"/>
       <c r="I638" s="15"/>
@@ -17840,7 +17840,7 @@
       <c r="L638" s="18"/>
       <c r="M638" s="21"/>
     </row>
-    <row r="639" spans="7:13">
+    <row r="639" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G639" s="19"/>
       <c r="H639" s="14"/>
       <c r="I639" s="15"/>
@@ -17849,7 +17849,7 @@
       <c r="L639" s="18"/>
       <c r="M639" s="21"/>
     </row>
-    <row r="640" spans="7:13">
+    <row r="640" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G640" s="19"/>
       <c r="H640" s="14"/>
       <c r="I640" s="15"/>
@@ -17858,7 +17858,7 @@
       <c r="L640" s="18"/>
       <c r="M640" s="21"/>
     </row>
-    <row r="641" spans="7:13">
+    <row r="641" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G641" s="19"/>
       <c r="H641" s="14"/>
       <c r="I641" s="15"/>
@@ -17867,7 +17867,7 @@
       <c r="L641" s="18"/>
       <c r="M641" s="21"/>
     </row>
-    <row r="642" spans="7:13">
+    <row r="642" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G642" s="19"/>
       <c r="H642" s="14"/>
       <c r="I642" s="15"/>
@@ -17876,7 +17876,7 @@
       <c r="L642" s="18"/>
       <c r="M642" s="21"/>
     </row>
-    <row r="643" spans="7:13">
+    <row r="643" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G643" s="19"/>
       <c r="H643" s="14"/>
       <c r="I643" s="15"/>
@@ -17885,7 +17885,7 @@
       <c r="L643" s="18"/>
       <c r="M643" s="21"/>
     </row>
-    <row r="644" spans="7:13">
+    <row r="644" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G644" s="19"/>
       <c r="H644" s="14"/>
       <c r="I644" s="15"/>
@@ -17894,7 +17894,7 @@
       <c r="L644" s="18"/>
       <c r="M644" s="21"/>
     </row>
-    <row r="645" spans="7:13">
+    <row r="645" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G645" s="19"/>
       <c r="H645" s="14"/>
       <c r="I645" s="15"/>
@@ -17903,7 +17903,7 @@
       <c r="L645" s="18"/>
       <c r="M645" s="21"/>
     </row>
-    <row r="646" spans="7:13">
+    <row r="646" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G646" s="19"/>
       <c r="H646" s="14"/>
       <c r="I646" s="15"/>
@@ -17912,7 +17912,7 @@
       <c r="L646" s="18"/>
       <c r="M646" s="21"/>
     </row>
-    <row r="647" spans="7:13">
+    <row r="647" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G647" s="19"/>
       <c r="H647" s="14"/>
       <c r="I647" s="15"/>
@@ -17921,7 +17921,7 @@
       <c r="L647" s="18"/>
       <c r="M647" s="21"/>
     </row>
-    <row r="648" spans="7:13">
+    <row r="648" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G648" s="19"/>
       <c r="H648" s="14"/>
       <c r="I648" s="15"/>
@@ -17930,7 +17930,7 @@
       <c r="L648" s="18"/>
       <c r="M648" s="21"/>
     </row>
-    <row r="649" spans="7:13">
+    <row r="649" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G649" s="19"/>
       <c r="H649" s="14"/>
       <c r="I649" s="15"/>
@@ -17939,7 +17939,7 @@
       <c r="L649" s="18"/>
       <c r="M649" s="21"/>
     </row>
-    <row r="650" spans="7:13">
+    <row r="650" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G650" s="19"/>
       <c r="H650" s="14"/>
       <c r="I650" s="15"/>
@@ -17948,7 +17948,7 @@
       <c r="L650" s="18"/>
       <c r="M650" s="21"/>
     </row>
-    <row r="651" spans="7:13">
+    <row r="651" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G651" s="19"/>
       <c r="H651" s="14"/>
       <c r="I651" s="15"/>
@@ -17957,7 +17957,7 @@
       <c r="L651" s="18"/>
       <c r="M651" s="21"/>
     </row>
-    <row r="652" spans="7:13">
+    <row r="652" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G652" s="19"/>
       <c r="H652" s="14"/>
       <c r="I652" s="15"/>
@@ -17966,7 +17966,7 @@
       <c r="L652" s="18"/>
       <c r="M652" s="21"/>
     </row>
-    <row r="653" spans="7:13">
+    <row r="653" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G653" s="19"/>
       <c r="H653" s="14"/>
       <c r="I653" s="15"/>
@@ -17975,7 +17975,7 @@
       <c r="L653" s="18"/>
       <c r="M653" s="21"/>
     </row>
-    <row r="654" spans="7:13">
+    <row r="654" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G654" s="19"/>
       <c r="H654" s="14"/>
       <c r="I654" s="15"/>
@@ -17984,7 +17984,7 @@
       <c r="L654" s="18"/>
       <c r="M654" s="21"/>
     </row>
-    <row r="655" spans="7:13">
+    <row r="655" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G655" s="19"/>
       <c r="H655" s="14"/>
       <c r="I655" s="15"/>
@@ -17993,7 +17993,7 @@
       <c r="L655" s="18"/>
       <c r="M655" s="21"/>
     </row>
-    <row r="656" spans="7:13">
+    <row r="656" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G656" s="19"/>
       <c r="H656" s="14"/>
       <c r="I656" s="15"/>
@@ -18002,7 +18002,7 @@
       <c r="L656" s="18"/>
       <c r="M656" s="21"/>
     </row>
-    <row r="657" spans="7:13">
+    <row r="657" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G657" s="19"/>
       <c r="H657" s="14"/>
       <c r="I657" s="15"/>
@@ -18011,7 +18011,7 @@
       <c r="L657" s="18"/>
       <c r="M657" s="21"/>
     </row>
-    <row r="658" spans="7:13">
+    <row r="658" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G658" s="19"/>
       <c r="H658" s="14"/>
       <c r="I658" s="15"/>
@@ -18020,7 +18020,7 @@
       <c r="L658" s="18"/>
       <c r="M658" s="21"/>
     </row>
-    <row r="659" spans="7:13">
+    <row r="659" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G659" s="19"/>
       <c r="H659" s="14"/>
       <c r="I659" s="15"/>
@@ -18029,7 +18029,7 @@
       <c r="L659" s="18"/>
       <c r="M659" s="21"/>
     </row>
-    <row r="660" spans="7:13">
+    <row r="660" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G660" s="19"/>
       <c r="H660" s="14"/>
       <c r="I660" s="15"/>
@@ -18038,7 +18038,7 @@
       <c r="L660" s="18"/>
       <c r="M660" s="21"/>
     </row>
-    <row r="661" spans="7:13">
+    <row r="661" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G661" s="19"/>
       <c r="H661" s="14"/>
       <c r="I661" s="15"/>
@@ -18047,7 +18047,7 @@
       <c r="L661" s="18"/>
       <c r="M661" s="21"/>
     </row>
-    <row r="662" spans="7:13">
+    <row r="662" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G662" s="19"/>
       <c r="H662" s="14"/>
       <c r="I662" s="15"/>
@@ -18056,7 +18056,7 @@
       <c r="L662" s="18"/>
       <c r="M662" s="21"/>
     </row>
-    <row r="663" spans="7:13">
+    <row r="663" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G663" s="19"/>
       <c r="H663" s="14"/>
       <c r="I663" s="15"/>
@@ -18065,7 +18065,7 @@
       <c r="L663" s="18"/>
       <c r="M663" s="21"/>
     </row>
-    <row r="664" spans="7:13">
+    <row r="664" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G664" s="19"/>
       <c r="H664" s="14"/>
       <c r="I664" s="15"/>
@@ -18074,7 +18074,7 @@
       <c r="L664" s="18"/>
       <c r="M664" s="21"/>
     </row>
-    <row r="665" spans="7:13">
+    <row r="665" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G665" s="19"/>
       <c r="H665" s="14"/>
       <c r="I665" s="15"/>
@@ -18083,7 +18083,7 @@
       <c r="L665" s="18"/>
       <c r="M665" s="21"/>
     </row>
-    <row r="666" spans="7:13">
+    <row r="666" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G666" s="19"/>
       <c r="H666" s="14"/>
       <c r="I666" s="15"/>
@@ -18092,7 +18092,7 @@
       <c r="L666" s="18"/>
       <c r="M666" s="21"/>
     </row>
-    <row r="667" spans="7:13">
+    <row r="667" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G667" s="19"/>
       <c r="H667" s="14"/>
       <c r="I667" s="15"/>
@@ -18101,7 +18101,7 @@
       <c r="L667" s="18"/>
       <c r="M667" s="21"/>
     </row>
-    <row r="668" spans="7:13">
+    <row r="668" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G668" s="19"/>
       <c r="H668" s="14"/>
       <c r="I668" s="15"/>
@@ -18110,7 +18110,7 @@
       <c r="L668" s="18"/>
       <c r="M668" s="21"/>
     </row>
-    <row r="669" spans="7:13">
+    <row r="669" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G669" s="19"/>
       <c r="H669" s="14"/>
       <c r="I669" s="15"/>
@@ -18119,7 +18119,7 @@
       <c r="L669" s="18"/>
       <c r="M669" s="21"/>
     </row>
-    <row r="670" spans="7:13">
+    <row r="670" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G670" s="19"/>
       <c r="H670" s="14"/>
       <c r="I670" s="15"/>
@@ -18128,7 +18128,7 @@
       <c r="L670" s="18"/>
       <c r="M670" s="21"/>
     </row>
-    <row r="671" spans="7:13">
+    <row r="671" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G671" s="19"/>
       <c r="H671" s="14"/>
       <c r="I671" s="15"/>
@@ -18137,7 +18137,7 @@
       <c r="L671" s="18"/>
       <c r="M671" s="21"/>
     </row>
-    <row r="672" spans="7:13">
+    <row r="672" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G672" s="19"/>
       <c r="H672" s="14"/>
       <c r="I672" s="15"/>
@@ -18146,7 +18146,7 @@
       <c r="L672" s="18"/>
       <c r="M672" s="21"/>
     </row>
-    <row r="673" spans="7:13">
+    <row r="673" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G673" s="19"/>
       <c r="H673" s="14"/>
       <c r="I673" s="15"/>
@@ -18155,7 +18155,7 @@
       <c r="L673" s="18"/>
       <c r="M673" s="21"/>
     </row>
-    <row r="674" spans="7:13">
+    <row r="674" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G674" s="19"/>
       <c r="H674" s="14"/>
       <c r="I674" s="15"/>
@@ -18164,7 +18164,7 @@
       <c r="L674" s="18"/>
       <c r="M674" s="21"/>
     </row>
-    <row r="675" spans="7:13">
+    <row r="675" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G675" s="19"/>
       <c r="H675" s="14"/>
       <c r="I675" s="15"/>
@@ -18173,7 +18173,7 @@
       <c r="L675" s="18"/>
       <c r="M675" s="21"/>
     </row>
-    <row r="676" spans="7:13">
+    <row r="676" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G676" s="19"/>
       <c r="H676" s="14"/>
       <c r="I676" s="15"/>
@@ -18182,7 +18182,7 @@
       <c r="L676" s="18"/>
       <c r="M676" s="21"/>
     </row>
-    <row r="677" spans="7:13">
+    <row r="677" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G677" s="19"/>
       <c r="H677" s="14"/>
       <c r="I677" s="15"/>
@@ -18191,7 +18191,7 @@
       <c r="L677" s="18"/>
       <c r="M677" s="21"/>
     </row>
-    <row r="678" spans="7:13">
+    <row r="678" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G678" s="19"/>
       <c r="H678" s="14"/>
       <c r="I678" s="15"/>
@@ -18200,7 +18200,7 @@
       <c r="L678" s="18"/>
       <c r="M678" s="21"/>
     </row>
-    <row r="679" spans="7:13">
+    <row r="679" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G679" s="19"/>
       <c r="H679" s="14"/>
       <c r="I679" s="15"/>
@@ -18209,7 +18209,7 @@
       <c r="L679" s="18"/>
       <c r="M679" s="21"/>
     </row>
-    <row r="680" spans="7:13">
+    <row r="680" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G680" s="19"/>
       <c r="H680" s="14"/>
       <c r="I680" s="15"/>
@@ -18218,7 +18218,7 @@
       <c r="L680" s="18"/>
       <c r="M680" s="21"/>
     </row>
-    <row r="681" spans="7:13">
+    <row r="681" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G681" s="19"/>
       <c r="H681" s="14"/>
       <c r="I681" s="15"/>
@@ -18227,7 +18227,7 @@
       <c r="L681" s="18"/>
       <c r="M681" s="21"/>
     </row>
-    <row r="682" spans="7:13">
+    <row r="682" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G682" s="19"/>
       <c r="H682" s="14"/>
       <c r="I682" s="15"/>
@@ -18236,7 +18236,7 @@
       <c r="L682" s="18"/>
       <c r="M682" s="21"/>
     </row>
-    <row r="683" spans="7:13">
+    <row r="683" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G683" s="19"/>
       <c r="H683" s="14"/>
       <c r="I683" s="15"/>
@@ -18245,7 +18245,7 @@
       <c r="L683" s="18"/>
       <c r="M683" s="21"/>
     </row>
-    <row r="684" spans="7:13">
+    <row r="684" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G684" s="19"/>
       <c r="H684" s="14"/>
       <c r="I684" s="15"/>
@@ -18254,7 +18254,7 @@
       <c r="L684" s="18"/>
       <c r="M684" s="21"/>
     </row>
-    <row r="685" spans="7:13">
+    <row r="685" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G685" s="19"/>
       <c r="H685" s="14"/>
       <c r="I685" s="15"/>
@@ -18263,7 +18263,7 @@
       <c r="L685" s="18"/>
       <c r="M685" s="21"/>
     </row>
-    <row r="686" spans="7:13">
+    <row r="686" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G686" s="19"/>
       <c r="H686" s="14"/>
       <c r="I686" s="15"/>
@@ -18272,7 +18272,7 @@
       <c r="L686" s="18"/>
       <c r="M686" s="21"/>
     </row>
-    <row r="687" spans="7:13">
+    <row r="687" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G687" s="19"/>
       <c r="H687" s="14"/>
       <c r="I687" s="15"/>
@@ -18281,7 +18281,7 @@
       <c r="L687" s="18"/>
       <c r="M687" s="21"/>
     </row>
-    <row r="688" spans="7:13">
+    <row r="688" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G688" s="19"/>
       <c r="H688" s="14"/>
       <c r="I688" s="15"/>
@@ -18290,7 +18290,7 @@
       <c r="L688" s="18"/>
       <c r="M688" s="21"/>
     </row>
-    <row r="689" spans="7:13">
+    <row r="689" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G689" s="19"/>
       <c r="H689" s="14"/>
       <c r="I689" s="15"/>
@@ -18299,7 +18299,7 @@
       <c r="L689" s="18"/>
       <c r="M689" s="21"/>
     </row>
-    <row r="690" spans="7:13">
+    <row r="690" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G690" s="19"/>
       <c r="H690" s="14"/>
       <c r="I690" s="15"/>
@@ -18308,7 +18308,7 @@
       <c r="L690" s="18"/>
       <c r="M690" s="21"/>
     </row>
-    <row r="691" spans="7:13">
+    <row r="691" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G691" s="19"/>
       <c r="H691" s="14"/>
       <c r="I691" s="15"/>
@@ -18317,7 +18317,7 @@
       <c r="L691" s="18"/>
       <c r="M691" s="21"/>
     </row>
-    <row r="692" spans="7:13">
+    <row r="692" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G692" s="19"/>
       <c r="H692" s="14"/>
       <c r="I692" s="15"/>
@@ -18326,7 +18326,7 @@
       <c r="L692" s="18"/>
       <c r="M692" s="21"/>
     </row>
-    <row r="693" spans="7:13">
+    <row r="693" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G693" s="19"/>
       <c r="H693" s="14"/>
       <c r="I693" s="15"/>
@@ -18335,7 +18335,7 @@
       <c r="L693" s="18"/>
       <c r="M693" s="21"/>
     </row>
-    <row r="694" spans="7:13">
+    <row r="694" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G694" s="19"/>
       <c r="H694" s="14"/>
       <c r="I694" s="15"/>
